--- a/BD7618A221071_1598_Job1_new.xlsx
+++ b/BD7618A221071_1598_Job1_new.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.weng\Documents\Python Scripts\python_projects\(2) Blank strip\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="OK_Strip" sheetId="1" r:id="rId1"/>
     <sheet name="NG_Strip" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="316">
   <si>
     <t>Index</t>
   </si>
@@ -960,17 +965,21 @@
   </si>
   <si>
     <t>&lt;306&gt; 306-RArea_A</t>
+  </si>
+  <si>
+    <t>do some change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -978,8 +987,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -991,7 +1007,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1014,27 +1030,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1053,11 +1099,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1795,238 +1844,238 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="312"/>
                 <c:pt idx="0">
-                  <c:v>0.993088</c:v>
+                  <c:v>0.99308799999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9913599999999999</c:v>
+                  <c:v>0.99135999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.989312</c:v>
+                  <c:v>0.98931199999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.980672</c:v>
+                  <c:v>0.98067199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9784959999999999</c:v>
+                  <c:v>0.97849599999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.986112</c:v>
+                  <c:v>0.98611199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9838079999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9786239999999999</c:v>
+                  <c:v>0.97862399999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9793919999999999</c:v>
+                  <c:v>0.97939199999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.981888</c:v>
+                  <c:v>0.98188799999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.981248</c:v>
+                  <c:v>0.98124800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.977792</c:v>
+                  <c:v>0.97779199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.977024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.977792</c:v>
+                  <c:v>0.97779199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9724159999999999</c:v>
+                  <c:v>0.97241599999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.969216</c:v>
+                  <c:v>0.96921599999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9767039999999999</c:v>
+                  <c:v>0.97670399999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9736319999999999</c:v>
+                  <c:v>0.97363199999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.975424</c:v>
+                  <c:v>0.97542399999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9759359999999999</c:v>
+                  <c:v>0.97593599999999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.975552</c:v>
+                  <c:v>0.97555199999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.980352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9695999999999999</c:v>
+                  <c:v>0.96959999999999991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9690879999999999</c:v>
+                  <c:v>0.96908799999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.967808</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9751679999999999</c:v>
+                  <c:v>0.97516799999999992</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.982016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.988416</c:v>
+                  <c:v>0.98841599999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.985088</c:v>
+                  <c:v>0.98508799999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9807359999999999</c:v>
+                  <c:v>0.98073599999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97664</c:v>
+                  <c:v>0.97663999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.982336</c:v>
+                  <c:v>0.98233599999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9797119999999999</c:v>
+                  <c:v>0.97971199999999992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9781759999999999</c:v>
+                  <c:v>0.97817599999999993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.979008</c:v>
+                  <c:v>0.97900799999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.980864</c:v>
+                  <c:v>0.98086399999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9830399999999999</c:v>
+                  <c:v>0.98303999999999991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9827199999999999</c:v>
+                  <c:v>0.98271999999999993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.988096</c:v>
+                  <c:v>0.98809599999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.975552</c:v>
+                  <c:v>0.97555199999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.978432</c:v>
+                  <c:v>0.97843199999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.9733759999999999</c:v>
+                  <c:v>0.97337599999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96768</c:v>
+                  <c:v>0.96767999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.966656</c:v>
+                  <c:v>0.96665599999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.9707519999999999</c:v>
+                  <c:v>0.97075199999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.973312</c:v>
+                  <c:v>0.97331199999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.973312</c:v>
+                  <c:v>0.97331199999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.9745279999999999</c:v>
+                  <c:v>0.97452799999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.976128</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.9786239999999999</c:v>
+                  <c:v>0.97862399999999994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.9706239999999999</c:v>
+                  <c:v>0.97062399999999993</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.969792</c:v>
+                  <c:v>0.96979199999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99712</c:v>
+                  <c:v>0.99712000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.98944</c:v>
+                  <c:v>0.98943999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.982208</c:v>
+                  <c:v>0.98220799999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.98003173828125</c:v>
+                  <c:v>0.98003173828125001</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.98368</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.984896</c:v>
+                  <c:v>0.98489599999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98176</c:v>
+                  <c:v>0.98175999999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.982208</c:v>
+                  <c:v>0.98220799999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9872</c:v>
+                  <c:v>0.98719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9870719999999999</c:v>
+                  <c:v>0.98707199999999995</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.982528</c:v>
+                  <c:v>0.98252799999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9822719999999999</c:v>
+                  <c:v>0.98227199999999992</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.984128</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.982656</c:v>
+                  <c:v>0.98265599999999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9872639999999999</c:v>
+                  <c:v>0.98726399999999992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.977472</c:v>
+                  <c:v>0.97747200000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.9778559999999999</c:v>
+                  <c:v>0.97785599999999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9818239999999999</c:v>
+                  <c:v>0.98182399999999992</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.9788159999999999</c:v>
+                  <c:v>0.97881599999999991</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.9750399999999999</c:v>
+                  <c:v>0.97503999999999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.976896</c:v>
+                  <c:v>0.97689599999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.977088</c:v>
+                  <c:v>0.97708799999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.969344</c:v>
+                  <c:v>0.96934399999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97376</c:v>
+                  <c:v>0.97375999999999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.971584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.973696</c:v>
+                  <c:v>0.97369600000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.004416</c:v>
@@ -2035,16 +2084,16 @@
                   <c:v>0.992896</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.9877119999999999</c:v>
+                  <c:v>0.98771199999999992</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.983232</c:v>
+                  <c:v>0.98323199999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.9840639999999999</c:v>
+                  <c:v>0.98406399999999994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.9859199999999999</c:v>
+                  <c:v>0.98591999999999991</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.982016</c:v>
@@ -2053,453 +2102,467 @@
                   <c:v>0.9854719999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9859199999999999</c:v>
+                  <c:v>0.98591999999999991</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9831679999999999</c:v>
+                  <c:v>0.98316799999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.986688</c:v>
+                  <c:v>0.98668800000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.9848319999999999</c:v>
+                  <c:v>0.98483199999999993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.990848</c:v>
+                  <c:v>0.99084799999999995</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9893759999999999</c:v>
+                  <c:v>0.98937599999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98688</c:v>
+                  <c:v>0.98687999999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.986432</c:v>
+                  <c:v>0.98643199999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.9807359999999999</c:v>
+                  <c:v>0.98073599999999994</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.977536</c:v>
+                  <c:v>0.97753599999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9828479999999999</c:v>
+                  <c:v>0.98284799999999994</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.984192</c:v>
+                  <c:v>0.98419199999999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.9833599999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.975232</c:v>
+                  <c:v>0.97523199999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.982016</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.9866239999999999</c:v>
+                  <c:v>0.98662399999999995</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.971328</c:v>
+                  <c:v>0.97132799999999997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.9784959999999999</c:v>
+                  <c:v>0.97849599999999992</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.9996159999999999</c:v>
+                  <c:v>0.99961599999999995</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0.987008</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.985664</c:v>
+                  <c:v>0.98566399999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.9809279999999999</c:v>
+                  <c:v>0.98092799999999991</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>0.982016</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.9869439999999999</c:v>
+                  <c:v>0.98694399999999993</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.98624</c:v>
+                  <c:v>0.98624000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.98009521484375</c:v>
+                  <c:v>0.98009521484374995</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.9830399999999999</c:v>
+                  <c:v>0.98303999999999991</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.9801599999999999</c:v>
+                  <c:v>0.98015999999999992</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.97856</c:v>
+                  <c:v>0.97855999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.979456</c:v>
+                  <c:v>0.97945599999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.9851519999999999</c:v>
+                  <c:v>0.98515199999999992</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.985664</c:v>
+                  <c:v>0.98566399999999998</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.9843839999999999</c:v>
+                  <c:v>0.98438399999999993</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.9849599999999999</c:v>
+                  <c:v>0.98495999999999995</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0.9838079999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.9797119999999999</c:v>
+                  <c:v>0.97971199999999992</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.986688</c:v>
+                  <c:v>0.98668800000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.9896959999999999</c:v>
+                  <c:v>0.98969599999999991</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.9840639999999999</c:v>
+                  <c:v>0.98406399999999994</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.9834879999999999</c:v>
+                  <c:v>0.98348799999999992</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.984448</c:v>
+                  <c:v>0.98444799999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.9807359999999999</c:v>
+                  <c:v>0.98073599999999994</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0.974464</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.9834879999999999</c:v>
+                  <c:v>0.98348799999999992</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0.9909119999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.98208</c:v>
+                  <c:v>0.98207999999999995</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.9748479999999999</c:v>
+                  <c:v>0.97484799999999994</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.9754879999999999</c:v>
+                  <c:v>0.97548799999999991</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.980992</c:v>
+                  <c:v>0.98099199999999998</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.98752</c:v>
+                  <c:v>0.98751999999999995</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.988224</c:v>
+                  <c:v>0.98822399999999999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.9864959999999999</c:v>
+                  <c:v>0.98649599999999993</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.9860479999999999</c:v>
+                  <c:v>0.98604799999999992</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.983232</c:v>
+                  <c:v>0.98323199999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.9843839999999999</c:v>
+                  <c:v>0.98438399999999993</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.980864</c:v>
+                  <c:v>0.98086399999999996</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.99232</c:v>
+                  <c:v>0.99231999999999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.990528</c:v>
+                  <c:v>0.99052799999999996</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.9931519999999999</c:v>
+                  <c:v>0.99315199999999992</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.988544</c:v>
+                  <c:v>0.98854399999999998</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.9900146484375</c:v>
+                  <c:v>0.99001464843749998</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.9905919999999999</c:v>
+                  <c:v>0.99059199999999992</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.992768</c:v>
+                  <c:v>0.99276799999999998</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.9860479999999999</c:v>
+                  <c:v>0.98604799999999992</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.979776</c:v>
+                  <c:v>0.97977599999999998</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.977344</c:v>
+                  <c:v>0.97734399999999999</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.9804799999999999</c:v>
+                  <c:v>0.98047999999999991</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.9740799999999999</c:v>
+                  <c:v>0.97407999999999995</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.9798399999999999</c:v>
+                  <c:v>0.97983999999999993</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.99168</c:v>
+                  <c:v>0.99168000000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.9873919999999999</c:v>
+                  <c:v>0.98739199999999994</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.9855999999999999</c:v>
+                  <c:v>0.98559999999999992</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.987648</c:v>
+                  <c:v>0.98764799999999997</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0.9838079999999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.9842559999999999</c:v>
+                  <c:v>0.98425599999999991</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.9804799999999999</c:v>
+                  <c:v>0.98047999999999991</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.9811839999999999</c:v>
+                  <c:v>0.98118399999999995</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.9901439999999999</c:v>
+                  <c:v>0.99014399999999991</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.9949439999999999</c:v>
+                  <c:v>0.99494399999999994</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.9870719999999999</c:v>
+                  <c:v>0.98707199999999995</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.98976</c:v>
+                  <c:v>0.98975999999999997</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.988416</c:v>
+                  <c:v>0.98841599999999996</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.990336</c:v>
+                  <c:v>0.99033599999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.9889279999999999</c:v>
+                  <c:v>0.98892799999999992</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.991744</c:v>
+                  <c:v>0.99174399999999996</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.984</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.990078125</c:v>
+                  <c:v>0.99007812500000003</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.984896</c:v>
+                  <c:v>0.98489599999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.975552</c:v>
+                  <c:v>0.97555199999999997</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.9857279999999999</c:v>
+                  <c:v>0.98572799999999994</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.988096</c:v>
+                  <c:v>0.98809599999999997</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.985984</c:v>
+                  <c:v>0.98598399999999997</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.9802879999999999</c:v>
+                  <c:v>0.98028799999999994</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.983872</c:v>
+                  <c:v>0.98387199999999997</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.9877119999999999</c:v>
+                  <c:v>0.98771199999999992</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.983872</c:v>
+                  <c:v>0.98387199999999997</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.986304</c:v>
+                  <c:v>0.98630399999999996</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.993664</c:v>
+                  <c:v>0.99366399999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.9895039999999999</c:v>
+                  <c:v>0.98950399999999994</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.986752</c:v>
+                  <c:v>0.98675199999999996</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.9869439999999999</c:v>
+                  <c:v>0.98694399999999993</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.9896959999999999</c:v>
+                  <c:v>0.98969599999999991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.988352</c:v>
+                  <c:v>0.98835200000000001</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>0.996224</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.9946879999999999</c:v>
+                  <c:v>0.99468799999999991</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.98688</c:v>
+                  <c:v>0.98687999999999998</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.992192</c:v>
+                  <c:v>0.99219199999999996</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.9877119999999999</c:v>
+                  <c:v>0.98771199999999992</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.98432</c:v>
+                  <c:v>0.98431999999999997</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.980672</c:v>
+                  <c:v>0.98067199999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.985984</c:v>
+                  <c:v>0.98598399999999997</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.01856</c:v>
+                  <c:v>1.0185599999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.9896959999999999</c:v>
+                  <c:v>0.98969599999999991</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>0.954816</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.987328</c:v>
+                  <c:v>0.98732799999999998</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.9592959999999999</c:v>
+                  <c:v>0.95929599999999993</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.9972479999999999</c:v>
+                  <c:v>0.99724799999999991</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.9887359999999999</c:v>
+                  <c:v>0.98873599999999995</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.9886079999999999</c:v>
+                  <c:v>0.98860799999999993</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.9893759999999999</c:v>
+                  <c:v>0.98937599999999992</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.9863679999999999</c:v>
+                  <c:v>0.98636799999999991</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.9898239999999999</c:v>
+                  <c:v>0.98982399999999993</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.991424</c:v>
+                  <c:v>0.99142399999999997</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.9886079999999999</c:v>
+                  <c:v>0.98860799999999993</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.985024</c:v>
+                  <c:v>0.98502400000000001</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.9873919999999999</c:v>
+                  <c:v>0.98739199999999994</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.984768</c:v>
+                  <c:v>0.98476799999999998</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.988864</c:v>
+                  <c:v>0.98886399999999997</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>0.9925759999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.004096</c:v>
+                  <c:v>1.0040960000000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.9680639999999999</c:v>
+                  <c:v>0.96806399999999992</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.9790719999999999</c:v>
+                  <c:v>0.97907199999999994</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.9880319999999999</c:v>
+                  <c:v>0.98803199999999991</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.99744</c:v>
+                  <c:v>0.99743999999999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.9875839999999999</c:v>
+                  <c:v>0.98758399999999991</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>1.01888</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.014976</c:v>
+                  <c:v>1.0149760000000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.006592</c:v>
+                  <c:v>1.0065919999999999</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.9685119999999999</c:v>
+                  <c:v>0.96851199999999993</c:v>
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>1.00006103515625</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.012928</c:v>
+                  <c:v>1.0129280000000001</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.9984639999999999</c:v>
+                  <c:v>0.99846399999999991</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.990848</c:v>
+                  <c:v>0.99084799999999995</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.006528</c:v>
+                  <c:v>1.0065280000000001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.019392</c:v>
+                  <c:v>1.0193920000000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.993664</c:v>
+                  <c:v>0.99366399999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.001408</c:v>
+                  <c:v>1.0014080000000001</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.019008</c:v>
+                  <c:v>1.0190079999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8839-46A6-B73A-4CDA630BC1EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:scatterChart>
@@ -2508,6 +2571,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2526,8 +2590,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -2538,6 +2605,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2557,8 +2625,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -2568,8 +2639,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2615,7 +2689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2657,7 +2731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2689,9 +2763,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2723,6 +2798,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2898,14 +2974,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2933,8 +3011,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2942,13 +3023,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D2" t="s">
         <v>243</v>
       </c>
       <c r="E2">
-        <v>0.993088</v>
+        <v>0.99308799999999997</v>
       </c>
       <c r="F2">
         <v>137024</v>
@@ -2960,10 +3041,10 @@
         <v>1414</v>
       </c>
       <c r="I2">
-        <v>0.9768591133103222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.97685911331032216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2971,13 +3052,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D3" t="s">
         <v>243</v>
       </c>
       <c r="E3">
-        <v>0.9913599999999999</v>
+        <v>0.99135999999999991</v>
       </c>
       <c r="F3">
         <v>135296</v>
@@ -2992,7 +3073,7 @@
         <v>0.9754991999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3000,13 +3081,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D4" t="s">
         <v>243</v>
       </c>
       <c r="E4">
-        <v>0.989312</v>
+        <v>0.98931199999999997</v>
       </c>
       <c r="F4">
         <v>133248</v>
@@ -3018,10 +3099,10 @@
         <v>1402</v>
       </c>
       <c r="I4">
-        <v>0.9735431999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.97354319999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3029,13 +3110,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D5" t="s">
         <v>243</v>
       </c>
       <c r="E5">
-        <v>0.980672</v>
+        <v>0.98067199999999999</v>
       </c>
       <c r="F5">
         <v>124608</v>
@@ -3047,10 +3128,10 @@
         <v>1399</v>
       </c>
       <c r="I5">
-        <v>0.9643286400000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.96432864000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3058,13 +3139,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D6" t="s">
         <v>243</v>
       </c>
       <c r="E6">
-        <v>0.9784959999999999</v>
+        <v>0.97849599999999992</v>
       </c>
       <c r="F6">
         <v>122432</v>
@@ -3076,10 +3157,10 @@
         <v>1403</v>
       </c>
       <c r="I6">
-        <v>0.9637831425156527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.96378314251565267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3087,13 +3168,13 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D7" t="s">
         <v>243</v>
       </c>
       <c r="E7">
-        <v>0.986112</v>
+        <v>0.98611199999999999</v>
       </c>
       <c r="F7">
         <v>130048</v>
@@ -3105,10 +3186,10 @@
         <v>1402</v>
       </c>
       <c r="I7">
-        <v>0.9712987199999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.97129871999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3116,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D8" t="s">
         <v>243</v>
@@ -3134,10 +3215,10 @@
         <v>1401</v>
       </c>
       <c r="I8">
-        <v>0.9674042475115837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.96740424751158371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3145,13 +3226,13 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D9" t="s">
         <v>243</v>
       </c>
       <c r="E9">
-        <v>0.9786239999999999</v>
+        <v>0.97862399999999994</v>
       </c>
       <c r="F9">
         <v>122560</v>
@@ -3163,10 +3244,10 @@
         <v>1401</v>
       </c>
       <c r="I9">
-        <v>0.9628800816171906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.96288008161719063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3174,13 +3255,13 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D10" t="s">
         <v>243</v>
       </c>
       <c r="E10">
-        <v>0.9793919999999999</v>
+        <v>0.97939199999999993</v>
       </c>
       <c r="F10">
         <v>123328</v>
@@ -3192,10 +3273,10 @@
         <v>1402</v>
       </c>
       <c r="I10">
-        <v>0.9657627330341818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.96576273303418181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3203,13 +3284,13 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D11" t="s">
         <v>243</v>
       </c>
       <c r="E11">
-        <v>0.981888</v>
+        <v>0.98188799999999998</v>
       </c>
       <c r="F11">
         <v>125824</v>
@@ -3221,10 +3302,10 @@
         <v>1401</v>
       </c>
       <c r="I11">
-        <v>0.9666084030224107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.96660840302241069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3232,13 +3313,13 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D12" t="s">
         <v>243</v>
       </c>
       <c r="E12">
-        <v>0.981248</v>
+        <v>0.98124800000000001</v>
       </c>
       <c r="F12">
         <v>125184</v>
@@ -3250,10 +3331,10 @@
         <v>1397</v>
       </c>
       <c r="I12">
-        <v>0.966085824490875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.96608582449087499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3261,13 +3342,13 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D13" t="s">
         <v>243</v>
       </c>
       <c r="E13">
-        <v>0.977792</v>
+        <v>0.97779199999999999</v>
       </c>
       <c r="F13">
         <v>121728</v>
@@ -3279,10 +3360,10 @@
         <v>1397</v>
       </c>
       <c r="I13">
-        <v>0.9607304684738557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.96073046847385568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3290,7 +3371,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D14" t="s">
         <v>243</v>
@@ -3308,10 +3389,10 @@
         <v>1400</v>
       </c>
       <c r="I14">
-        <v>0.9612502455500702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.96125024555007021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3319,13 +3400,13 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D15" t="s">
         <v>243</v>
       </c>
       <c r="E15">
-        <v>0.977792</v>
+        <v>0.97779199999999999</v>
       </c>
       <c r="F15">
         <v>121728</v>
@@ -3337,10 +3418,10 @@
         <v>1402</v>
       </c>
       <c r="I15">
-        <v>0.9638102663037894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.96381026630378941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3348,13 +3429,13 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D16" t="s">
         <v>243</v>
       </c>
       <c r="E16">
-        <v>0.9724159999999999</v>
+        <v>0.97241599999999995</v>
       </c>
       <c r="F16">
         <v>116352</v>
@@ -3366,10 +3447,10 @@
         <v>1398</v>
       </c>
       <c r="I16">
-        <v>0.9551818189920205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.95518181899202048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3377,13 +3458,13 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D17" t="s">
         <v>243</v>
       </c>
       <c r="E17">
-        <v>0.969216</v>
+        <v>0.96921599999999997</v>
       </c>
       <c r="F17">
         <v>113152</v>
@@ -3398,7 +3479,7 @@
         <v>0.95369472</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3406,13 +3487,13 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D18" t="s">
         <v>243</v>
       </c>
       <c r="E18">
-        <v>0.9767039999999999</v>
+        <v>0.97670399999999991</v>
       </c>
       <c r="F18">
         <v>120640</v>
@@ -3424,10 +3505,10 @@
         <v>1400</v>
       </c>
       <c r="I18">
-        <v>0.96208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.96208000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3435,13 +3516,13 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D19" t="s">
         <v>243</v>
       </c>
       <c r="E19">
-        <v>0.9736319999999999</v>
+        <v>0.97363199999999994</v>
       </c>
       <c r="F19">
         <v>117568</v>
@@ -3453,10 +3534,10 @@
         <v>1401</v>
       </c>
       <c r="I19">
-        <v>0.9586943999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.95869439999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3464,13 +3545,13 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D20" t="s">
         <v>243</v>
       </c>
       <c r="E20">
-        <v>0.975424</v>
+        <v>0.97542399999999996</v>
       </c>
       <c r="F20">
         <v>119360</v>
@@ -3482,10 +3563,10 @@
         <v>1401</v>
       </c>
       <c r="I20">
-        <v>0.96037632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.96037631999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3493,13 +3574,13 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D21" t="s">
         <v>243</v>
       </c>
       <c r="E21">
-        <v>0.9759359999999999</v>
+        <v>0.97593599999999991</v>
       </c>
       <c r="F21">
         <v>119872</v>
@@ -3511,10 +3592,10 @@
         <v>1405</v>
       </c>
       <c r="I21">
-        <v>0.9614459722330554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.96144597223305539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3522,13 +3603,13 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D22" t="s">
         <v>243</v>
       </c>
       <c r="E22">
-        <v>0.975552</v>
+        <v>0.97555199999999997</v>
       </c>
       <c r="F22">
         <v>119488</v>
@@ -3540,10 +3621,10 @@
         <v>1407</v>
       </c>
       <c r="I22">
-        <v>0.9623012520557775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.96230125205577755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3551,7 +3632,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D23" t="s">
         <v>243</v>
@@ -3569,10 +3650,10 @@
         <v>1404</v>
       </c>
       <c r="I23">
-        <v>0.9637055999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.96370559999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3580,13 +3661,13 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D24" t="s">
         <v>243</v>
       </c>
       <c r="E24">
-        <v>0.9695999999999999</v>
+        <v>0.96959999999999991</v>
       </c>
       <c r="F24">
         <v>113536</v>
@@ -3598,10 +3679,10 @@
         <v>1402</v>
       </c>
       <c r="I24">
-        <v>0.9523199614198122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.95231996141981223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3609,13 +3690,13 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D25" t="s">
         <v>243</v>
       </c>
       <c r="E25">
-        <v>0.9690879999999999</v>
+        <v>0.96908799999999995</v>
       </c>
       <c r="F25">
         <v>113024</v>
@@ -3627,10 +3708,10 @@
         <v>1404</v>
       </c>
       <c r="I25">
-        <v>0.9542203587925137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.95422035879251366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3638,7 +3719,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D26" t="s">
         <v>243</v>
@@ -3656,10 +3737,10 @@
         <v>1402</v>
       </c>
       <c r="I26">
-        <v>0.9511829349105824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.95118293491058237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3667,13 +3748,13 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D27" t="s">
         <v>243</v>
       </c>
       <c r="E27">
-        <v>0.9751679999999999</v>
+        <v>0.97516799999999992</v>
       </c>
       <c r="F27">
         <v>119104</v>
@@ -3685,10 +3766,10 @@
         <v>1407</v>
       </c>
       <c r="I27">
-        <v>0.9620433424975516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.96204334249755163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3696,7 +3777,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D28" t="s">
         <v>243</v>
@@ -3714,10 +3795,10 @@
         <v>1404</v>
       </c>
       <c r="I28">
-        <v>0.9676915074711208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.96769150747112076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3725,13 +3806,13 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D29" t="s">
         <v>243</v>
       </c>
       <c r="E29">
-        <v>0.988416</v>
+        <v>0.98841599999999996</v>
       </c>
       <c r="F29">
         <v>132352</v>
@@ -3743,10 +3824,10 @@
         <v>1405</v>
       </c>
       <c r="I29">
-        <v>0.9750521793238673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.97505217932386734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3754,13 +3835,13 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D30" t="s">
         <v>243</v>
       </c>
       <c r="E30">
-        <v>0.985088</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="F30">
         <v>129024</v>
@@ -3772,10 +3853,10 @@
         <v>1406</v>
       </c>
       <c r="I30">
-        <v>0.9698385555446467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.96983855554464671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3783,13 +3864,13 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D31" t="s">
         <v>243</v>
       </c>
       <c r="E31">
-        <v>0.9807359999999999</v>
+        <v>0.98073599999999994</v>
       </c>
       <c r="F31">
         <v>124672</v>
@@ -3801,10 +3882,10 @@
         <v>1409</v>
       </c>
       <c r="I31">
-        <v>0.9710136109391416</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.97101361093914162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3812,13 +3893,13 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D32" t="s">
         <v>243</v>
       </c>
       <c r="E32">
-        <v>0.97664</v>
+        <v>0.97663999999999995</v>
       </c>
       <c r="F32">
         <v>120576</v>
@@ -3830,10 +3911,10 @@
         <v>1403</v>
       </c>
       <c r="I32">
-        <v>0.9606894698095224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.96068946980952241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3841,13 +3922,13 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D33" t="s">
         <v>243</v>
       </c>
       <c r="E33">
-        <v>0.982336</v>
+        <v>0.98233599999999999</v>
       </c>
       <c r="F33">
         <v>126272</v>
@@ -3859,10 +3940,10 @@
         <v>1414</v>
       </c>
       <c r="I33">
-        <v>0.9694539207468457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.96945392074684567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3870,13 +3951,13 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D34" t="s">
         <v>243</v>
       </c>
       <c r="E34">
-        <v>0.9797119999999999</v>
+        <v>0.97971199999999992</v>
       </c>
       <c r="F34">
         <v>123648</v>
@@ -3891,7 +3972,7 @@
         <v>0.9651059556698105</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3899,13 +3980,13 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D35" t="s">
         <v>243</v>
       </c>
       <c r="E35">
-        <v>0.9781759999999999</v>
+        <v>0.97817599999999993</v>
       </c>
       <c r="F35">
         <v>122112</v>
@@ -3917,10 +3998,10 @@
         <v>1402</v>
       </c>
       <c r="I35">
-        <v>0.963154872636681</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.96315487263668098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3928,13 +4009,13 @@
         <v>43</v>
       </c>
       <c r="C36">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D36" t="s">
         <v>243</v>
       </c>
       <c r="E36">
-        <v>0.979008</v>
+        <v>0.97900799999999999</v>
       </c>
       <c r="F36">
         <v>122944</v>
@@ -3946,10 +4027,10 @@
         <v>1399</v>
       </c>
       <c r="I36">
-        <v>0.9618860070018662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.96188600700186622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3957,13 +4038,13 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D37" t="s">
         <v>243</v>
       </c>
       <c r="E37">
-        <v>0.980864</v>
+        <v>0.98086399999999996</v>
       </c>
       <c r="F37">
         <v>124800</v>
@@ -3975,10 +4056,10 @@
         <v>1406</v>
       </c>
       <c r="I37">
-        <v>0.9642278400000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.96422784000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3986,13 +4067,13 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D38" t="s">
         <v>243</v>
       </c>
       <c r="E38">
-        <v>0.9830399999999999</v>
+        <v>0.98303999999999991</v>
       </c>
       <c r="F38">
         <v>126976</v>
@@ -4004,10 +4085,10 @@
         <v>1404</v>
       </c>
       <c r="I38">
-        <v>0.9679933941423822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.96799339414238217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4015,13 +4096,13 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D39" t="s">
         <v>243</v>
       </c>
       <c r="E39">
-        <v>0.9827199999999999</v>
+        <v>0.98271999999999993</v>
       </c>
       <c r="F39">
         <v>126656</v>
@@ -4033,10 +4114,10 @@
         <v>1404</v>
       </c>
       <c r="I39">
-        <v>0.9677177001844897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.96771770018448966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4044,13 +4125,13 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
       </c>
       <c r="E40">
-        <v>0.988096</v>
+        <v>0.98809599999999997</v>
       </c>
       <c r="F40">
         <v>132032</v>
@@ -4062,10 +4143,10 @@
         <v>1404</v>
       </c>
       <c r="I40">
-        <v>0.9726661606812695</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.97266616068126954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4073,13 +4154,13 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D41" t="s">
         <v>243</v>
       </c>
       <c r="E41">
-        <v>0.975552</v>
+        <v>0.97555199999999997</v>
       </c>
       <c r="F41">
         <v>119488</v>
@@ -4091,10 +4172,10 @@
         <v>1403</v>
       </c>
       <c r="I41">
-        <v>0.9604156901923548</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.96041569019235484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4102,13 +4183,13 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D42" t="s">
         <v>243</v>
       </c>
       <c r="E42">
-        <v>0.978432</v>
+        <v>0.97843199999999997</v>
       </c>
       <c r="F42">
         <v>122368</v>
@@ -4120,10 +4201,10 @@
         <v>1402</v>
       </c>
       <c r="I42">
-        <v>0.9628975783817895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.96289757838178947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4131,13 +4212,13 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
       </c>
       <c r="E43">
-        <v>0.9733759999999999</v>
+        <v>0.97337599999999991</v>
       </c>
       <c r="F43">
         <v>117312</v>
@@ -4149,10 +4230,10 @@
         <v>1398</v>
       </c>
       <c r="I43">
-        <v>0.9581836800000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.95818368000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4160,13 +4241,13 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D44" t="s">
         <v>243</v>
       </c>
       <c r="E44">
-        <v>0.96768</v>
+        <v>0.96767999999999998</v>
       </c>
       <c r="F44">
         <v>111616</v>
@@ -4178,10 +4259,10 @@
         <v>1401</v>
       </c>
       <c r="I44">
-        <v>0.9511345599999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.95113455999999985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4189,13 +4270,13 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D45" t="s">
         <v>243</v>
       </c>
       <c r="E45">
-        <v>0.966656</v>
+        <v>0.96665599999999996</v>
       </c>
       <c r="F45">
         <v>110592</v>
@@ -4207,10 +4288,10 @@
         <v>1398</v>
       </c>
       <c r="I45">
-        <v>0.9511991999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.95119919999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4218,13 +4299,13 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D46" t="s">
         <v>243</v>
       </c>
       <c r="E46">
-        <v>0.9707519999999999</v>
+        <v>0.97075199999999995</v>
       </c>
       <c r="F46">
         <v>114688</v>
@@ -4236,10 +4317,10 @@
         <v>1402</v>
       </c>
       <c r="I46">
-        <v>0.956775420865389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.95677542086538903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4247,13 +4328,13 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D47" t="s">
         <v>243</v>
       </c>
       <c r="E47">
-        <v>0.973312</v>
+        <v>0.97331199999999995</v>
       </c>
       <c r="F47">
         <v>117248</v>
@@ -4265,10 +4346,10 @@
         <v>1401</v>
       </c>
       <c r="I47">
-        <v>0.95786032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.95786031999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4276,13 +4357,13 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D48" t="s">
         <v>243</v>
       </c>
       <c r="E48">
-        <v>0.973312</v>
+        <v>0.97331199999999995</v>
       </c>
       <c r="F48">
         <v>117248</v>
@@ -4297,7 +4378,7 @@
         <v>0.9556368553937632</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4305,13 +4386,13 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D49" t="s">
         <v>243</v>
       </c>
       <c r="E49">
-        <v>0.9745279999999999</v>
+        <v>0.97452799999999995</v>
       </c>
       <c r="F49">
         <v>118464</v>
@@ -4323,10 +4404,10 @@
         <v>1401</v>
       </c>
       <c r="I49">
-        <v>0.95954176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.95954176000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4334,7 +4415,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D50" t="s">
         <v>243</v>
@@ -4352,10 +4433,10 @@
         <v>1405</v>
       </c>
       <c r="I50">
-        <v>0.9586191999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.95861919999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4363,13 +4444,13 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D51" t="s">
         <v>243</v>
       </c>
       <c r="E51">
-        <v>0.9786239999999999</v>
+        <v>0.97862399999999994</v>
       </c>
       <c r="F51">
         <v>122560</v>
@@ -4381,10 +4462,10 @@
         <v>1408</v>
       </c>
       <c r="I51">
-        <v>0.9622188800000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.96221888000000011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4392,13 +4473,13 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D52" t="s">
         <v>243</v>
       </c>
       <c r="E52">
-        <v>0.9706239999999999</v>
+        <v>0.97062399999999993</v>
       </c>
       <c r="F52">
         <v>114560</v>
@@ -4410,10 +4491,10 @@
         <v>1404</v>
       </c>
       <c r="I52">
-        <v>0.95414016</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.95414016000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4421,13 +4502,13 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D53" t="s">
         <v>243</v>
       </c>
       <c r="E53">
-        <v>0.969792</v>
+        <v>0.96979199999999999</v>
       </c>
       <c r="F53">
         <v>113728</v>
@@ -4439,10 +4520,10 @@
         <v>1407</v>
       </c>
       <c r="I53">
-        <v>0.9566049599999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.95660495999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4450,13 +4531,13 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D54" t="s">
         <v>243</v>
       </c>
       <c r="E54">
-        <v>0.99712</v>
+        <v>0.99712000000000001</v>
       </c>
       <c r="F54">
         <v>141056</v>
@@ -4468,10 +4549,10 @@
         <v>1409</v>
       </c>
       <c r="I54">
-        <v>0.9796916272068411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.97969162720684111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4479,13 +4560,13 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D55" t="s">
         <v>243</v>
       </c>
       <c r="E55">
-        <v>0.98944</v>
+        <v>0.98943999999999999</v>
       </c>
       <c r="F55">
         <v>133376</v>
@@ -4497,10 +4578,10 @@
         <v>1412</v>
       </c>
       <c r="I55">
-        <v>0.9734260800000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.97342608000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4508,13 +4589,13 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D56" t="s">
         <v>243</v>
       </c>
       <c r="E56">
-        <v>0.982208</v>
+        <v>0.98220799999999997</v>
       </c>
       <c r="F56">
         <v>126144</v>
@@ -4526,10 +4607,10 @@
         <v>1401</v>
       </c>
       <c r="I56">
-        <v>0.9668279999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.96682799999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4537,13 +4618,13 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D57" t="s">
         <v>243</v>
       </c>
       <c r="E57">
-        <v>0.98003173828125</v>
+        <v>0.98003173828125001</v>
       </c>
       <c r="F57">
         <v>123968</v>
@@ -4555,10 +4636,10 @@
         <v>1403</v>
       </c>
       <c r="I57">
-        <v>0.96427904</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.96427903999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4566,7 +4647,7 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>0.856</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>243</v>
@@ -4584,10 +4665,10 @@
         <v>1404</v>
       </c>
       <c r="I58">
-        <v>0.9702245759633888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.97022457596338885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4595,13 +4676,13 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D59" t="s">
         <v>243</v>
       </c>
       <c r="E59">
-        <v>0.984896</v>
+        <v>0.98489599999999999</v>
       </c>
       <c r="F59">
         <v>128832</v>
@@ -4613,10 +4694,10 @@
         <v>1404</v>
       </c>
       <c r="I59">
-        <v>0.96875008</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.96875007999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4624,13 +4705,13 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D60" t="s">
         <v>243</v>
       </c>
       <c r="E60">
-        <v>0.98176</v>
+        <v>0.98175999999999997</v>
       </c>
       <c r="F60">
         <v>125696</v>
@@ -4642,10 +4723,10 @@
         <v>1406</v>
       </c>
       <c r="I60">
-        <v>0.9662032</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.96620320000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4653,13 +4734,13 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D61" t="s">
         <v>243</v>
       </c>
       <c r="E61">
-        <v>0.982208</v>
+        <v>0.98220799999999997</v>
       </c>
       <c r="F61">
         <v>126144</v>
@@ -4671,10 +4752,10 @@
         <v>1402</v>
       </c>
       <c r="I61">
-        <v>0.9657627347974291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.96576273479742913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4682,13 +4763,13 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D62" t="s">
         <v>243</v>
       </c>
       <c r="E62">
-        <v>0.9872</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="F62">
         <v>131136</v>
@@ -4700,10 +4781,10 @@
         <v>1408</v>
       </c>
       <c r="I62">
-        <v>0.9718116777724674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.97181167777246735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4711,13 +4792,13 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D63" t="s">
         <v>243</v>
       </c>
       <c r="E63">
-        <v>0.9870719999999999</v>
+        <v>0.98707199999999995</v>
       </c>
       <c r="F63">
         <v>131008</v>
@@ -4729,10 +4810,10 @@
         <v>1406</v>
       </c>
       <c r="I63">
-        <v>0.9723801599999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.97238015999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4740,13 +4821,13 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D64" t="s">
         <v>243</v>
       </c>
       <c r="E64">
-        <v>0.982528</v>
+        <v>0.98252799999999996</v>
       </c>
       <c r="F64">
         <v>126464</v>
@@ -4758,10 +4839,10 @@
         <v>1399</v>
       </c>
       <c r="I64">
-        <v>0.9685390219755627</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.96853902197556274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4769,13 +4850,13 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D65" t="s">
         <v>243</v>
       </c>
       <c r="E65">
-        <v>0.9822719999999999</v>
+        <v>0.98227199999999992</v>
       </c>
       <c r="F65">
         <v>126208</v>
@@ -4790,7 +4871,7 @@
         <v>0.9667775999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4798,7 +4879,7 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D66" t="s">
         <v>243</v>
@@ -4816,10 +4897,10 @@
         <v>1406</v>
       </c>
       <c r="I66">
-        <v>0.9690152000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.96901520000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4827,13 +4908,13 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D67" t="s">
         <v>243</v>
       </c>
       <c r="E67">
-        <v>0.982656</v>
+        <v>0.98265599999999997</v>
       </c>
       <c r="F67">
         <v>126592</v>
@@ -4845,10 +4926,10 @@
         <v>1404</v>
       </c>
       <c r="I67">
-        <v>0.9654557402933326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.96545574029333259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4856,13 +4937,13 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D68" t="s">
         <v>243</v>
       </c>
       <c r="E68">
-        <v>0.9872639999999999</v>
+        <v>0.98726399999999992</v>
       </c>
       <c r="F68">
         <v>131200</v>
@@ -4874,10 +4955,10 @@
         <v>1408</v>
       </c>
       <c r="I68">
-        <v>0.9715895188942721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.97158951889427214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4885,13 +4966,13 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D69" t="s">
         <v>243</v>
       </c>
       <c r="E69">
-        <v>0.977472</v>
+        <v>0.97747200000000001</v>
       </c>
       <c r="F69">
         <v>121408</v>
@@ -4903,10 +4984,10 @@
         <v>1403</v>
       </c>
       <c r="I69">
-        <v>0.9612508713797553</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.96125087137975529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4914,13 +4995,13 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D70" t="s">
         <v>243</v>
       </c>
       <c r="E70">
-        <v>0.9778559999999999</v>
+        <v>0.97785599999999995</v>
       </c>
       <c r="F70">
         <v>121792</v>
@@ -4932,10 +5013,10 @@
         <v>1404</v>
       </c>
       <c r="I70">
-        <v>0.9620208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.96202080000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4943,13 +5024,13 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D71" t="s">
         <v>243</v>
       </c>
       <c r="E71">
-        <v>0.9818239999999999</v>
+        <v>0.98182399999999992</v>
       </c>
       <c r="F71">
         <v>125760</v>
@@ -4964,7 +5045,7 @@
         <v>0.9637831398370087</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4972,13 +5053,13 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D72" t="s">
         <v>243</v>
       </c>
       <c r="E72">
-        <v>0.9788159999999999</v>
+        <v>0.97881599999999991</v>
       </c>
       <c r="F72">
         <v>122752</v>
@@ -4990,10 +5071,10 @@
         <v>1408</v>
       </c>
       <c r="I72">
-        <v>0.9641827199999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.96418271999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5001,13 +5082,13 @@
         <v>80</v>
       </c>
       <c r="C73">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D73" t="s">
         <v>243</v>
       </c>
       <c r="E73">
-        <v>0.9750399999999999</v>
+        <v>0.97503999999999991</v>
       </c>
       <c r="F73">
         <v>118976</v>
@@ -5019,10 +5100,10 @@
         <v>1405</v>
       </c>
       <c r="I73">
-        <v>0.9618001696220624</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.96180016962206238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5030,13 +5111,13 @@
         <v>81</v>
       </c>
       <c r="C74">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D74" t="s">
         <v>243</v>
       </c>
       <c r="E74">
-        <v>0.976896</v>
+        <v>0.97689599999999999</v>
       </c>
       <c r="F74">
         <v>120832</v>
@@ -5048,10 +5129,10 @@
         <v>1407</v>
       </c>
       <c r="I74">
-        <v>0.9628139501253078</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.96281395012530779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5059,13 +5140,13 @@
         <v>82</v>
       </c>
       <c r="C75">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D75" t="s">
         <v>243</v>
       </c>
       <c r="E75">
-        <v>0.977088</v>
+        <v>0.97708799999999996</v>
       </c>
       <c r="F75">
         <v>121024</v>
@@ -5077,10 +5158,10 @@
         <v>1408</v>
       </c>
       <c r="I75">
-        <v>0.9603220684913483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.96032206849134827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5088,13 +5169,13 @@
         <v>83</v>
       </c>
       <c r="C76">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D76" t="s">
         <v>243</v>
       </c>
       <c r="E76">
-        <v>0.969344</v>
+        <v>0.96934399999999998</v>
       </c>
       <c r="F76">
         <v>113280</v>
@@ -5106,10 +5187,10 @@
         <v>1408</v>
       </c>
       <c r="I76">
-        <v>0.9529343999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.95293439999999985</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5117,13 +5198,13 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D77" t="s">
         <v>243</v>
       </c>
       <c r="E77">
-        <v>0.97376</v>
+        <v>0.97375999999999996</v>
       </c>
       <c r="F77">
         <v>117696</v>
@@ -5135,10 +5216,10 @@
         <v>1405</v>
       </c>
       <c r="I77">
-        <v>0.9561135747962327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.95611357479623271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5146,7 +5227,7 @@
         <v>85</v>
       </c>
       <c r="C78">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -5164,10 +5245,10 @@
         <v>1407</v>
       </c>
       <c r="I78">
-        <v>0.9594201599999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.95942015999999986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5175,13 +5256,13 @@
         <v>86</v>
       </c>
       <c r="C79">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D79" t="s">
         <v>243</v>
       </c>
       <c r="E79">
-        <v>0.973696</v>
+        <v>0.97369600000000001</v>
       </c>
       <c r="F79">
         <v>117632</v>
@@ -5193,10 +5274,10 @@
         <v>1406</v>
       </c>
       <c r="I79">
-        <v>0.9577649264707406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.95776492647074063</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5204,7 +5285,7 @@
         <v>87</v>
       </c>
       <c r="C80">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D80" t="s">
         <v>243</v>
@@ -5225,7 +5306,7 @@
         <v>0.9889493681007786</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5233,7 +5314,7 @@
         <v>88</v>
       </c>
       <c r="C81">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D81" t="s">
         <v>243</v>
@@ -5251,10 +5332,10 @@
         <v>1400</v>
       </c>
       <c r="I81">
-        <v>0.9740940808815765</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.97409408088157645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5262,13 +5343,13 @@
         <v>89</v>
       </c>
       <c r="C82">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D82" t="s">
         <v>243</v>
       </c>
       <c r="E82">
-        <v>0.9877119999999999</v>
+        <v>0.98771199999999992</v>
       </c>
       <c r="F82">
         <v>131648</v>
@@ -5283,7 +5364,7 @@
         <v>0.9710489565679058</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5291,13 +5372,13 @@
         <v>90</v>
       </c>
       <c r="C83">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
       </c>
       <c r="E83">
-        <v>0.983232</v>
+        <v>0.98323199999999999</v>
       </c>
       <c r="F83">
         <v>127168</v>
@@ -5309,10 +5390,10 @@
         <v>1404</v>
       </c>
       <c r="I83">
-        <v>0.96594048</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.96594047999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5320,13 +5401,13 @@
         <v>91</v>
       </c>
       <c r="C84">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
       </c>
       <c r="E84">
-        <v>0.9840639999999999</v>
+        <v>0.98406399999999994</v>
       </c>
       <c r="F84">
         <v>128000</v>
@@ -5338,10 +5419,10 @@
         <v>1412</v>
       </c>
       <c r="I84">
-        <v>0.97005126953125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.97005126953124998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5349,13 +5430,13 @@
         <v>92</v>
       </c>
       <c r="C85">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D85" t="s">
         <v>243</v>
       </c>
       <c r="E85">
-        <v>0.9859199999999999</v>
+        <v>0.98591999999999991</v>
       </c>
       <c r="F85">
         <v>129856</v>
@@ -5367,10 +5448,10 @@
         <v>1408</v>
       </c>
       <c r="I85">
-        <v>0.9703936000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.97039360000000008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5378,7 +5459,7 @@
         <v>93</v>
       </c>
       <c r="C86">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D86" t="s">
         <v>243</v>
@@ -5396,10 +5477,10 @@
         <v>1406</v>
       </c>
       <c r="I86">
-        <v>0.9674090568200293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.96740905682002931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5407,7 +5488,7 @@
         <v>94</v>
       </c>
       <c r="C87">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D87" t="s">
         <v>243</v>
@@ -5425,10 +5506,10 @@
         <v>1407</v>
       </c>
       <c r="I87">
-        <v>0.9690572743276017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.96905727432760169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5436,13 +5517,13 @@
         <v>95</v>
       </c>
       <c r="C88">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D88" t="s">
         <v>243</v>
       </c>
       <c r="E88">
-        <v>0.9859199999999999</v>
+        <v>0.98591999999999991</v>
       </c>
       <c r="F88">
         <v>129856</v>
@@ -5454,10 +5535,10 @@
         <v>1405</v>
       </c>
       <c r="I88">
-        <v>0.9688047835648876</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.96880478356488764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5465,13 +5546,13 @@
         <v>96</v>
       </c>
       <c r="C89">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D89" t="s">
         <v>243</v>
       </c>
       <c r="E89">
-        <v>0.9831679999999999</v>
+        <v>0.98316799999999993</v>
       </c>
       <c r="F89">
         <v>127104</v>
@@ -5486,7 +5567,7 @@
         <v>0.9665677390931916</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5494,13 +5575,13 @@
         <v>97</v>
       </c>
       <c r="C90">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D90" t="s">
         <v>243</v>
       </c>
       <c r="E90">
-        <v>0.986688</v>
+        <v>0.98668800000000001</v>
       </c>
       <c r="F90">
         <v>130624</v>
@@ -5512,10 +5593,10 @@
         <v>1405</v>
       </c>
       <c r="I90">
-        <v>0.9715664563034366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.97156645630343663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5523,13 +5604,13 @@
         <v>98</v>
       </c>
       <c r="C91">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D91" t="s">
         <v>243</v>
       </c>
       <c r="E91">
-        <v>0.9848319999999999</v>
+        <v>0.98483199999999993</v>
       </c>
       <c r="F91">
         <v>128768</v>
@@ -5541,10 +5622,10 @@
         <v>1407</v>
       </c>
       <c r="I91">
-        <v>0.9707462805446898</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.97074628054468981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5552,13 +5633,13 @@
         <v>99</v>
       </c>
       <c r="C92">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D92" t="s">
         <v>243</v>
       </c>
       <c r="E92">
-        <v>0.990848</v>
+        <v>0.99084799999999995</v>
       </c>
       <c r="F92">
         <v>134784</v>
@@ -5570,10 +5651,10 @@
         <v>1409</v>
       </c>
       <c r="I92">
-        <v>0.9757300799999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.97573007999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5581,13 +5662,13 @@
         <v>100</v>
       </c>
       <c r="C93">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D93" t="s">
         <v>243</v>
       </c>
       <c r="E93">
-        <v>0.9893759999999999</v>
+        <v>0.98937599999999992</v>
       </c>
       <c r="F93">
         <v>133312</v>
@@ -5599,10 +5680,10 @@
         <v>1408</v>
       </c>
       <c r="I93">
-        <v>0.974336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.97433599999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5610,13 +5691,13 @@
         <v>101</v>
       </c>
       <c r="C94">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D94" t="s">
         <v>243</v>
       </c>
       <c r="E94">
-        <v>0.98688</v>
+        <v>0.98687999999999998</v>
       </c>
       <c r="F94">
         <v>130816</v>
@@ -5628,10 +5709,10 @@
         <v>1410</v>
       </c>
       <c r="I94">
-        <v>0.97232336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.97232335999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5639,13 +5720,13 @@
         <v>102</v>
       </c>
       <c r="C95">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D95" t="s">
         <v>243</v>
       </c>
       <c r="E95">
-        <v>0.986432</v>
+        <v>0.98643199999999998</v>
       </c>
       <c r="F95">
         <v>130368</v>
@@ -5657,10 +5738,10 @@
         <v>1410</v>
       </c>
       <c r="I95">
-        <v>0.9709849236329882</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.97098492363298816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5668,13 +5749,13 @@
         <v>103</v>
       </c>
       <c r="C96">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D96" t="s">
         <v>243</v>
       </c>
       <c r="E96">
-        <v>0.9807359999999999</v>
+        <v>0.98073599999999994</v>
       </c>
       <c r="F96">
         <v>124672</v>
@@ -5686,10 +5767,10 @@
         <v>1409</v>
       </c>
       <c r="I96">
-        <v>0.9661367818674511</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.96613678186745111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5697,13 +5778,13 @@
         <v>104</v>
       </c>
       <c r="C97">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D97" t="s">
         <v>243</v>
       </c>
       <c r="E97">
-        <v>0.977536</v>
+        <v>0.97753599999999996</v>
       </c>
       <c r="F97">
         <v>121472</v>
@@ -5715,10 +5796,10 @@
         <v>1409</v>
       </c>
       <c r="I97">
-        <v>0.9634106150945032</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.96341061509450321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5726,13 +5807,13 @@
         <v>105</v>
       </c>
       <c r="C98">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D98" t="s">
         <v>243</v>
       </c>
       <c r="E98">
-        <v>0.9828479999999999</v>
+        <v>0.98284799999999994</v>
       </c>
       <c r="F98">
         <v>126784</v>
@@ -5744,10 +5825,10 @@
         <v>1406</v>
       </c>
       <c r="I98">
-        <v>0.9671060955237037</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.96710609552370375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5755,13 +5836,13 @@
         <v>106</v>
       </c>
       <c r="C99">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D99" t="s">
         <v>243</v>
       </c>
       <c r="E99">
-        <v>0.984192</v>
+        <v>0.98419199999999996</v>
       </c>
       <c r="F99">
         <v>128128</v>
@@ -5776,7 +5857,7 @@
         <v>0.9679557582111401</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5784,7 +5865,7 @@
         <v>107</v>
       </c>
       <c r="C100">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D100" t="s">
         <v>243</v>
@@ -5802,10 +5883,10 @@
         <v>1407</v>
       </c>
       <c r="I100">
-        <v>0.9673682707056062</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.96736827070560616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5813,13 +5894,13 @@
         <v>108</v>
       </c>
       <c r="C101">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D101" t="s">
         <v>243</v>
       </c>
       <c r="E101">
-        <v>0.975232</v>
+        <v>0.97523199999999999</v>
       </c>
       <c r="F101">
         <v>119168</v>
@@ -5834,7 +5915,7 @@
         <v>0.9614726400000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5842,7 +5923,7 @@
         <v>109</v>
       </c>
       <c r="C102">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D102" t="s">
         <v>243</v>
@@ -5860,10 +5941,10 @@
         <v>1419</v>
       </c>
       <c r="I102">
-        <v>0.9716406151988939</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.97164061519889389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5871,13 +5952,13 @@
         <v>110</v>
       </c>
       <c r="C103">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D103" t="s">
         <v>243</v>
       </c>
       <c r="E103">
-        <v>0.9866239999999999</v>
+        <v>0.98662399999999995</v>
       </c>
       <c r="F103">
         <v>130560</v>
@@ -5889,10 +5970,10 @@
         <v>1413</v>
       </c>
       <c r="I103">
-        <v>0.9712324105674879</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.97123241056748788</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5900,13 +5981,13 @@
         <v>111</v>
       </c>
       <c r="C104">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D104" t="s">
         <v>243</v>
       </c>
       <c r="E104">
-        <v>0.971328</v>
+        <v>0.97132799999999997</v>
       </c>
       <c r="F104">
         <v>115264</v>
@@ -5918,10 +5999,10 @@
         <v>1402</v>
       </c>
       <c r="I104">
-        <v>0.9550579484516802</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.95505794845168024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5929,13 +6010,13 @@
         <v>112</v>
       </c>
       <c r="C105">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D105" t="s">
         <v>243</v>
       </c>
       <c r="E105">
-        <v>0.9784959999999999</v>
+        <v>0.97849599999999992</v>
       </c>
       <c r="F105">
         <v>122432</v>
@@ -5947,10 +6028,10 @@
         <v>1402</v>
       </c>
       <c r="I105">
-        <v>0.9623207999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.96232079999999987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5958,13 +6039,13 @@
         <v>113</v>
       </c>
       <c r="C106">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D106" t="s">
         <v>243</v>
       </c>
       <c r="E106">
-        <v>0.9996159999999999</v>
+        <v>0.99961599999999995</v>
       </c>
       <c r="F106">
         <v>143552</v>
@@ -5976,10 +6057,10 @@
         <v>1408</v>
       </c>
       <c r="I106">
-        <v>0.9827947262378904</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.98279472623789044</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5987,7 +6068,7 @@
         <v>114</v>
       </c>
       <c r="C107">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D107" t="s">
         <v>243</v>
@@ -6005,10 +6086,10 @@
         <v>1400</v>
       </c>
       <c r="I107">
-        <v>0.9702618044017255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.97026180440172549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6016,13 +6097,13 @@
         <v>115</v>
       </c>
       <c r="C108">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D108" t="s">
         <v>243</v>
       </c>
       <c r="E108">
-        <v>0.985664</v>
+        <v>0.98566399999999998</v>
       </c>
       <c r="F108">
         <v>129600</v>
@@ -6034,10 +6115,10 @@
         <v>1410</v>
       </c>
       <c r="I108">
-        <v>0.973452</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.97345199999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6045,13 +6126,13 @@
         <v>116</v>
       </c>
       <c r="C109">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D109" t="s">
         <v>243</v>
       </c>
       <c r="E109">
-        <v>0.9809279999999999</v>
+        <v>0.98092799999999991</v>
       </c>
       <c r="F109">
         <v>124864</v>
@@ -6063,10 +6144,10 @@
         <v>1406</v>
       </c>
       <c r="I109">
-        <v>0.9651439487623906</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.96514394876239062</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6074,7 +6155,7 @@
         <v>117</v>
       </c>
       <c r="C110">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D110" t="s">
         <v>243</v>
@@ -6092,10 +6173,10 @@
         <v>1404</v>
       </c>
       <c r="I110">
-        <v>0.9665024</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.96650239999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6103,13 +6184,13 @@
         <v>118</v>
       </c>
       <c r="C111">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D111" t="s">
         <v>243</v>
       </c>
       <c r="E111">
-        <v>0.9869439999999999</v>
+        <v>0.98694399999999993</v>
       </c>
       <c r="F111">
         <v>130880</v>
@@ -6121,10 +6202,10 @@
         <v>1411</v>
       </c>
       <c r="I111">
-        <v>0.9709212012587249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.97092120125872494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6132,13 +6213,13 @@
         <v>119</v>
       </c>
       <c r="C112">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D112" t="s">
         <v>243</v>
       </c>
       <c r="E112">
-        <v>0.98624</v>
+        <v>0.98624000000000001</v>
       </c>
       <c r="F112">
         <v>130176</v>
@@ -6153,7 +6234,7 @@
         <v>0.9718272</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6161,13 +6242,13 @@
         <v>120</v>
       </c>
       <c r="C113">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D113" t="s">
         <v>243</v>
       </c>
       <c r="E113">
-        <v>0.98009521484375</v>
+        <v>0.98009521484374995</v>
       </c>
       <c r="F113">
         <v>124032</v>
@@ -6179,10 +6260,10 @@
         <v>1402</v>
       </c>
       <c r="I113">
-        <v>0.9645809657061341</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.96458096570613405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6190,13 +6271,13 @@
         <v>121</v>
       </c>
       <c r="C114">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D114" t="s">
         <v>243</v>
       </c>
       <c r="E114">
-        <v>0.9830399999999999</v>
+        <v>0.98303999999999991</v>
       </c>
       <c r="F114">
         <v>126976</v>
@@ -6208,10 +6289,10 @@
         <v>1403</v>
       </c>
       <c r="I114">
-        <v>0.96708544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.96708543999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6219,13 +6300,13 @@
         <v>122</v>
       </c>
       <c r="C115">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D115" t="s">
         <v>243</v>
       </c>
       <c r="E115">
-        <v>0.9801599999999999</v>
+        <v>0.98015999999999992</v>
       </c>
       <c r="F115">
         <v>124096</v>
@@ -6237,10 +6318,10 @@
         <v>1406</v>
       </c>
       <c r="I115">
-        <v>0.9637309610664517</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.96373096106645173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6248,13 +6329,13 @@
         <v>123</v>
       </c>
       <c r="C116">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D116" t="s">
         <v>243</v>
       </c>
       <c r="E116">
-        <v>0.97856</v>
+        <v>0.97855999999999999</v>
       </c>
       <c r="F116">
         <v>122496</v>
@@ -6266,10 +6347,10 @@
         <v>1402</v>
       </c>
       <c r="I116">
-        <v>0.9640152000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.96401520000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6277,13 +6358,13 @@
         <v>124</v>
       </c>
       <c r="C117">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D117" t="s">
         <v>243</v>
       </c>
       <c r="E117">
-        <v>0.979456</v>
+        <v>0.97945599999999999</v>
       </c>
       <c r="F117">
         <v>123392</v>
@@ -6295,10 +6376,10 @@
         <v>1401</v>
       </c>
       <c r="I117">
-        <v>0.9626188799999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.96261887999999984</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6306,13 +6387,13 @@
         <v>125</v>
       </c>
       <c r="C118">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D118" t="s">
         <v>243</v>
       </c>
       <c r="E118">
-        <v>0.9851519999999999</v>
+        <v>0.98515199999999992</v>
       </c>
       <c r="F118">
         <v>129088</v>
@@ -6324,10 +6405,10 @@
         <v>1406</v>
       </c>
       <c r="I118">
-        <v>0.9684411199999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.96844111999999982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6335,13 +6416,13 @@
         <v>126</v>
       </c>
       <c r="C119">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D119" t="s">
         <v>243</v>
       </c>
       <c r="E119">
-        <v>0.985664</v>
+        <v>0.98566399999999998</v>
       </c>
       <c r="F119">
         <v>129600</v>
@@ -6353,10 +6434,10 @@
         <v>1404</v>
       </c>
       <c r="I119">
-        <v>0.9701595199999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.97015951999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6364,13 +6445,13 @@
         <v>127</v>
       </c>
       <c r="C120">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D120" t="s">
         <v>243</v>
       </c>
       <c r="E120">
-        <v>0.9843839999999999</v>
+        <v>0.98438399999999993</v>
       </c>
       <c r="F120">
         <v>128320</v>
@@ -6382,10 +6463,10 @@
         <v>1408</v>
       </c>
       <c r="I120">
-        <v>0.9681408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.96814080000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6393,13 +6474,13 @@
         <v>128</v>
       </c>
       <c r="C121">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D121" t="s">
         <v>243</v>
       </c>
       <c r="E121">
-        <v>0.9849599999999999</v>
+        <v>0.98495999999999995</v>
       </c>
       <c r="F121">
         <v>128896</v>
@@ -6411,10 +6492,10 @@
         <v>1406</v>
       </c>
       <c r="I121">
-        <v>0.9690804830516067</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.96908048305160666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6422,7 +6503,7 @@
         <v>129</v>
       </c>
       <c r="C122">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D122" t="s">
         <v>243</v>
@@ -6440,10 +6521,10 @@
         <v>1407</v>
       </c>
       <c r="I122">
-        <v>0.9687321351844798</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.96873213518447976</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6451,13 +6532,13 @@
         <v>130</v>
       </c>
       <c r="C123">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D123" t="s">
         <v>243</v>
       </c>
       <c r="E123">
-        <v>0.9797119999999999</v>
+        <v>0.97971199999999992</v>
       </c>
       <c r="F123">
         <v>123648</v>
@@ -6469,10 +6550,10 @@
         <v>1404</v>
       </c>
       <c r="I123">
-        <v>0.9637055999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.96370559999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6480,13 +6561,13 @@
         <v>131</v>
       </c>
       <c r="C124">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D124" t="s">
         <v>243</v>
       </c>
       <c r="E124">
-        <v>0.986688</v>
+        <v>0.98668800000000001</v>
       </c>
       <c r="F124">
         <v>130624</v>
@@ -6498,10 +6579,10 @@
         <v>1406</v>
       </c>
       <c r="I124">
-        <v>0.9712704248490375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.97127042484903747</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6509,13 +6590,13 @@
         <v>132</v>
       </c>
       <c r="C125">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D125" t="s">
         <v>243</v>
       </c>
       <c r="E125">
-        <v>0.9896959999999999</v>
+        <v>0.98969599999999991</v>
       </c>
       <c r="F125">
         <v>133632</v>
@@ -6527,10 +6608,10 @@
         <v>1406</v>
       </c>
       <c r="I125">
-        <v>0.97294288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.97294287999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6538,13 +6619,13 @@
         <v>133</v>
       </c>
       <c r="C126">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D126" t="s">
         <v>243</v>
       </c>
       <c r="E126">
-        <v>0.9840639999999999</v>
+        <v>0.98406399999999994</v>
       </c>
       <c r="F126">
         <v>128000</v>
@@ -6556,10 +6637,10 @@
         <v>1407</v>
       </c>
       <c r="I126">
-        <v>0.96759072</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.96759072000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6567,13 +6648,13 @@
         <v>134</v>
       </c>
       <c r="C127">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D127" t="s">
         <v>243</v>
       </c>
       <c r="E127">
-        <v>0.9834879999999999</v>
+        <v>0.98348799999999992</v>
       </c>
       <c r="F127">
         <v>127424</v>
@@ -6585,10 +6666,10 @@
         <v>1408</v>
       </c>
       <c r="I127">
-        <v>0.9676587882207192</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.96765878822071916</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6596,13 +6677,13 @@
         <v>135</v>
       </c>
       <c r="C128">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D128" t="s">
         <v>243</v>
       </c>
       <c r="E128">
-        <v>0.984448</v>
+        <v>0.98444799999999999</v>
       </c>
       <c r="F128">
         <v>128384</v>
@@ -6614,10 +6695,10 @@
         <v>1424</v>
       </c>
       <c r="I128">
-        <v>0.9754466132288934</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.97544661322889337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6625,13 +6706,13 @@
         <v>136</v>
       </c>
       <c r="C129">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D129" t="s">
         <v>243</v>
       </c>
       <c r="E129">
-        <v>0.9807359999999999</v>
+        <v>0.98073599999999994</v>
       </c>
       <c r="F129">
         <v>124672</v>
@@ -6643,10 +6724,10 @@
         <v>1408</v>
       </c>
       <c r="I129">
-        <v>0.9641723427925341</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.96417234279253405</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6654,7 +6735,7 @@
         <v>137</v>
       </c>
       <c r="C130">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D130" t="s">
         <v>243</v>
@@ -6675,7 +6756,7 @@
         <v>0.9595444218549456</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6683,13 +6764,13 @@
         <v>138</v>
       </c>
       <c r="C131">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D131" t="s">
         <v>243</v>
       </c>
       <c r="E131">
-        <v>0.9834879999999999</v>
+        <v>0.98348799999999992</v>
       </c>
       <c r="F131">
         <v>127424</v>
@@ -6701,10 +6782,10 @@
         <v>1406</v>
       </c>
       <c r="I131">
-        <v>0.9673313210543715</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.96733132105437147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6712,7 +6793,7 @@
         <v>139</v>
       </c>
       <c r="C132">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D132" t="s">
         <v>243</v>
@@ -6730,10 +6811,10 @@
         <v>1400</v>
       </c>
       <c r="I132">
-        <v>0.9746783999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.97467839999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6741,13 +6822,13 @@
         <v>140</v>
       </c>
       <c r="C133">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D133" t="s">
         <v>243</v>
       </c>
       <c r="E133">
-        <v>0.98208</v>
+        <v>0.98207999999999995</v>
       </c>
       <c r="F133">
         <v>126016</v>
@@ -6762,7 +6843,7 @@
         <v>0.9680071233870009</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6770,13 +6851,13 @@
         <v>141</v>
       </c>
       <c r="C134">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D134" t="s">
         <v>243</v>
       </c>
       <c r="E134">
-        <v>0.9748479999999999</v>
+        <v>0.97484799999999994</v>
       </c>
       <c r="F134">
         <v>118784</v>
@@ -6788,10 +6869,10 @@
         <v>1395</v>
       </c>
       <c r="I134">
-        <v>0.96023771466959</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.96023771466958996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6799,13 +6880,13 @@
         <v>142</v>
       </c>
       <c r="C135">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D135" t="s">
         <v>243</v>
       </c>
       <c r="E135">
-        <v>0.9754879999999999</v>
+        <v>0.97548799999999991</v>
       </c>
       <c r="F135">
         <v>119424</v>
@@ -6817,10 +6898,10 @@
         <v>1397</v>
       </c>
       <c r="I135">
-        <v>0.9602209037807999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.96022090378079994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6828,13 +6909,13 @@
         <v>143</v>
       </c>
       <c r="C136">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D136" t="s">
         <v>243</v>
       </c>
       <c r="E136">
-        <v>0.980992</v>
+        <v>0.98099199999999998</v>
       </c>
       <c r="F136">
         <v>124928</v>
@@ -6846,10 +6927,10 @@
         <v>1402</v>
       </c>
       <c r="I136">
-        <v>0.9668125782030789</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.96681257820307887</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6857,13 +6938,13 @@
         <v>144</v>
       </c>
       <c r="C137">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D137" t="s">
         <v>243</v>
       </c>
       <c r="E137">
-        <v>0.98752</v>
+        <v>0.98751999999999995</v>
       </c>
       <c r="F137">
         <v>131456</v>
@@ -6875,10 +6956,10 @@
         <v>1410</v>
       </c>
       <c r="I137">
-        <v>0.9721131673513415</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.97211316735134146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6886,13 +6967,13 @@
         <v>145</v>
       </c>
       <c r="C138">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D138" t="s">
         <v>243</v>
       </c>
       <c r="E138">
-        <v>0.988224</v>
+        <v>0.98822399999999999</v>
       </c>
       <c r="F138">
         <v>132160</v>
@@ -6904,10 +6985,10 @@
         <v>1411</v>
       </c>
       <c r="I138">
-        <v>0.9721001231029097</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.97210012310290972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6915,13 +6996,13 @@
         <v>146</v>
       </c>
       <c r="C139">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D139" t="s">
         <v>243</v>
       </c>
       <c r="E139">
-        <v>0.9864959999999999</v>
+        <v>0.98649599999999993</v>
       </c>
       <c r="F139">
         <v>130432</v>
@@ -6933,10 +7014,10 @@
         <v>1409</v>
       </c>
       <c r="I139">
-        <v>0.9718653752107234</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.97186537521072336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6944,13 +7025,13 @@
         <v>147</v>
       </c>
       <c r="C140">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D140" t="s">
         <v>243</v>
       </c>
       <c r="E140">
-        <v>0.9860479999999999</v>
+        <v>0.98604799999999992</v>
       </c>
       <c r="F140">
         <v>129984</v>
@@ -6962,10 +7043,10 @@
         <v>1407</v>
       </c>
       <c r="I140">
-        <v>0.9704208021697227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.97042080216972271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6973,13 +7054,13 @@
         <v>148</v>
       </c>
       <c r="C141">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D141" t="s">
         <v>243</v>
       </c>
       <c r="E141">
-        <v>0.983232</v>
+        <v>0.98323199999999999</v>
       </c>
       <c r="F141">
         <v>127168</v>
@@ -6991,10 +7072,10 @@
         <v>1408</v>
       </c>
       <c r="I141">
-        <v>0.9664523824306769</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.96645238243067688</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7002,13 +7083,13 @@
         <v>149</v>
       </c>
       <c r="C142">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D142" t="s">
         <v>243</v>
       </c>
       <c r="E142">
-        <v>0.9843839999999999</v>
+        <v>0.98438399999999993</v>
       </c>
       <c r="F142">
         <v>128320</v>
@@ -7020,10 +7101,10 @@
         <v>1403</v>
       </c>
       <c r="I142">
-        <v>0.9690454399999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.96904543999999992</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7031,13 +7112,13 @@
         <v>150</v>
       </c>
       <c r="C143">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D143" t="s">
         <v>243</v>
       </c>
       <c r="E143">
-        <v>0.980864</v>
+        <v>0.98086399999999996</v>
       </c>
       <c r="F143">
         <v>124800</v>
@@ -7052,7 +7133,7 @@
         <v>0.965967685623773</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7060,13 +7141,13 @@
         <v>151</v>
       </c>
       <c r="C144">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D144" t="s">
         <v>243</v>
       </c>
       <c r="E144">
-        <v>0.99232</v>
+        <v>0.99231999999999998</v>
       </c>
       <c r="F144">
         <v>136256</v>
@@ -7078,10 +7159,10 @@
         <v>1408</v>
       </c>
       <c r="I144">
-        <v>0.9788342399999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.97883423999999986</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7089,13 +7170,13 @@
         <v>152</v>
       </c>
       <c r="C145">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D145" t="s">
         <v>243</v>
       </c>
       <c r="E145">
-        <v>0.990528</v>
+        <v>0.99052799999999996</v>
       </c>
       <c r="F145">
         <v>134464</v>
@@ -7107,10 +7188,10 @@
         <v>1404</v>
       </c>
       <c r="I145">
-        <v>0.9760766458007727</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.97607664580077269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7118,13 +7199,13 @@
         <v>153</v>
       </c>
       <c r="C146">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D146" t="s">
         <v>243</v>
       </c>
       <c r="E146">
-        <v>0.9931519999999999</v>
+        <v>0.99315199999999992</v>
       </c>
       <c r="F146">
         <v>137088</v>
@@ -7136,10 +7217,10 @@
         <v>1412</v>
       </c>
       <c r="I146">
-        <v>0.97681584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.97681583999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7147,13 +7228,13 @@
         <v>154</v>
       </c>
       <c r="C147">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D147" t="s">
         <v>243</v>
       </c>
       <c r="E147">
-        <v>0.988544</v>
+        <v>0.98854399999999998</v>
       </c>
       <c r="F147">
         <v>132480</v>
@@ -7165,10 +7246,10 @@
         <v>1409</v>
       </c>
       <c r="I147">
-        <v>0.9749445814907985</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.97494458149079855</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7176,13 +7257,13 @@
         <v>155</v>
       </c>
       <c r="C148">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D148" t="s">
         <v>243</v>
       </c>
       <c r="E148">
-        <v>0.9900146484375</v>
+        <v>0.99001464843749998</v>
       </c>
       <c r="F148">
         <v>133952</v>
@@ -7194,10 +7275,10 @@
         <v>1409</v>
       </c>
       <c r="I148">
-        <v>0.972927358151881</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.97292735815188103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7205,13 +7286,13 @@
         <v>156</v>
       </c>
       <c r="C149">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D149" t="s">
         <v>243</v>
       </c>
       <c r="E149">
-        <v>0.9905919999999999</v>
+        <v>0.99059199999999992</v>
       </c>
       <c r="F149">
         <v>134528</v>
@@ -7223,10 +7304,10 @@
         <v>1407</v>
       </c>
       <c r="I149">
-        <v>0.9751852799999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.97518527999999982</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7234,13 +7315,13 @@
         <v>157</v>
       </c>
       <c r="C150">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D150" t="s">
         <v>243</v>
       </c>
       <c r="E150">
-        <v>0.992768</v>
+        <v>0.99276799999999998</v>
       </c>
       <c r="F150">
         <v>136704</v>
@@ -7252,10 +7333,10 @@
         <v>1410</v>
       </c>
       <c r="I150">
-        <v>0.9768379199999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.97683791999999992</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7263,13 +7344,13 @@
         <v>158</v>
       </c>
       <c r="C151">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D151" t="s">
         <v>243</v>
       </c>
       <c r="E151">
-        <v>0.9860479999999999</v>
+        <v>0.98604799999999992</v>
       </c>
       <c r="F151">
         <v>129984</v>
@@ -7281,10 +7362,10 @@
         <v>1405</v>
       </c>
       <c r="I151">
-        <v>0.9701500799999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.97015007999999991</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7292,13 +7373,13 @@
         <v>159</v>
       </c>
       <c r="C152">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D152" t="s">
         <v>243</v>
       </c>
       <c r="E152">
-        <v>0.979776</v>
+        <v>0.97977599999999998</v>
       </c>
       <c r="F152">
         <v>123712</v>
@@ -7310,10 +7391,10 @@
         <v>1402</v>
       </c>
       <c r="I152">
-        <v>0.9651263999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.96512639999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7321,13 +7402,13 @@
         <v>160</v>
       </c>
       <c r="C153">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D153" t="s">
         <v>243</v>
       </c>
       <c r="E153">
-        <v>0.977344</v>
+        <v>0.97734399999999999</v>
       </c>
       <c r="F153">
         <v>121280</v>
@@ -7339,10 +7420,10 @@
         <v>1396</v>
       </c>
       <c r="I153">
-        <v>0.9613466728311862</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.96134667283118624</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7350,13 +7431,13 @@
         <v>161</v>
       </c>
       <c r="C154">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D154" t="s">
         <v>243</v>
       </c>
       <c r="E154">
-        <v>0.9804799999999999</v>
+        <v>0.98047999999999991</v>
       </c>
       <c r="F154">
         <v>124416</v>
@@ -7368,10 +7449,10 @@
         <v>1397</v>
       </c>
       <c r="I154">
-        <v>0.9618974300198607</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.96189743001986072</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7379,13 +7460,13 @@
         <v>162</v>
       </c>
       <c r="C155">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D155" t="s">
         <v>243</v>
       </c>
       <c r="E155">
-        <v>0.9740799999999999</v>
+        <v>0.97407999999999995</v>
       </c>
       <c r="F155">
         <v>118016</v>
@@ -7397,10 +7478,10 @@
         <v>1397</v>
       </c>
       <c r="I155">
-        <v>0.957426693200734</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.95742669320073404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7408,13 +7489,13 @@
         <v>163</v>
       </c>
       <c r="C156">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D156" t="s">
         <v>243</v>
       </c>
       <c r="E156">
-        <v>0.9798399999999999</v>
+        <v>0.97983999999999993</v>
       </c>
       <c r="F156">
         <v>123776</v>
@@ -7426,10 +7507,10 @@
         <v>1392</v>
       </c>
       <c r="I156">
-        <v>0.9633442832738154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.96334428327381538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7437,13 +7518,13 @@
         <v>164</v>
       </c>
       <c r="C157">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D157" t="s">
         <v>243</v>
       </c>
       <c r="E157">
-        <v>0.99168</v>
+        <v>0.99168000000000001</v>
       </c>
       <c r="F157">
         <v>135616</v>
@@ -7455,10 +7536,10 @@
         <v>1410</v>
       </c>
       <c r="I157">
-        <v>0.9968868016575865</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.99688680165758647</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>162</v>
       </c>
@@ -7466,13 +7547,13 @@
         <v>165</v>
       </c>
       <c r="C158">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D158" t="s">
         <v>243</v>
       </c>
       <c r="E158">
-        <v>0.9873919999999999</v>
+        <v>0.98739199999999994</v>
       </c>
       <c r="F158">
         <v>131328</v>
@@ -7484,10 +7565,10 @@
         <v>1413</v>
       </c>
       <c r="I158">
-        <v>0.9711666009047923</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.97116660090479234</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>163</v>
       </c>
@@ -7495,13 +7576,13 @@
         <v>166</v>
       </c>
       <c r="C159">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D159" t="s">
         <v>243</v>
       </c>
       <c r="E159">
-        <v>0.9855999999999999</v>
+        <v>0.98559999999999992</v>
       </c>
       <c r="F159">
         <v>129536</v>
@@ -7516,7 +7597,7 @@
         <v>0.9714700799999999</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>164</v>
       </c>
@@ -7524,13 +7605,13 @@
         <v>167</v>
       </c>
       <c r="C160">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D160" t="s">
         <v>243</v>
       </c>
       <c r="E160">
-        <v>0.987648</v>
+        <v>0.98764799999999997</v>
       </c>
       <c r="F160">
         <v>131584</v>
@@ -7542,10 +7623,10 @@
         <v>1407</v>
       </c>
       <c r="I160">
-        <v>0.9729982874594704</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.97299828745947037</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>165</v>
       </c>
@@ -7553,7 +7634,7 @@
         <v>168</v>
       </c>
       <c r="C161">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D161" t="s">
         <v>243</v>
@@ -7574,7 +7655,7 @@
         <v>0.9684684771403389</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>166</v>
       </c>
@@ -7582,13 +7663,13 @@
         <v>169</v>
       </c>
       <c r="C162">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D162" t="s">
         <v>243</v>
       </c>
       <c r="E162">
-        <v>0.9842559999999999</v>
+        <v>0.98425599999999991</v>
       </c>
       <c r="F162">
         <v>128192</v>
@@ -7600,10 +7681,10 @@
         <v>1406</v>
       </c>
       <c r="I162">
-        <v>0.9685337995914537</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.96853379959145369</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>167</v>
       </c>
@@ -7611,13 +7692,13 @@
         <v>170</v>
       </c>
       <c r="C163">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D163" t="s">
         <v>243</v>
       </c>
       <c r="E163">
-        <v>0.9804799999999999</v>
+        <v>0.98047999999999991</v>
       </c>
       <c r="F163">
         <v>124416</v>
@@ -7629,10 +7710,10 @@
         <v>1402</v>
       </c>
       <c r="I163">
-        <v>0.9623364491032408</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.96233644910324079</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>168</v>
       </c>
@@ -7640,13 +7721,13 @@
         <v>171</v>
       </c>
       <c r="C164">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D164" t="s">
         <v>243</v>
       </c>
       <c r="E164">
-        <v>0.9811839999999999</v>
+        <v>0.98118399999999995</v>
       </c>
       <c r="F164">
         <v>125120</v>
@@ -7658,10 +7739,10 @@
         <v>1407</v>
       </c>
       <c r="I164">
-        <v>0.9668052648478997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.96680526484789975</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>169</v>
       </c>
@@ -7669,13 +7750,13 @@
         <v>172</v>
       </c>
       <c r="C165">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D165" t="s">
         <v>243</v>
       </c>
       <c r="E165">
-        <v>0.9901439999999999</v>
+        <v>0.99014399999999991</v>
       </c>
       <c r="F165">
         <v>134080</v>
@@ -7687,10 +7768,10 @@
         <v>1407</v>
       </c>
       <c r="I165">
-        <v>0.9774532267128047</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.97745322671280466</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>170</v>
       </c>
@@ -7698,13 +7779,13 @@
         <v>173</v>
       </c>
       <c r="C166">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D166" t="s">
         <v>243</v>
       </c>
       <c r="E166">
-        <v>0.9949439999999999</v>
+        <v>0.99494399999999994</v>
       </c>
       <c r="F166">
         <v>138880</v>
@@ -7716,10 +7797,10 @@
         <v>1411</v>
       </c>
       <c r="I166">
-        <v>0.9805667572006204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.98056675720062036</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>171</v>
       </c>
@@ -7727,13 +7808,13 @@
         <v>174</v>
       </c>
       <c r="C167">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D167" t="s">
         <v>243</v>
       </c>
       <c r="E167">
-        <v>0.9870719999999999</v>
+        <v>0.98707199999999995</v>
       </c>
       <c r="F167">
         <v>131008</v>
@@ -7745,10 +7826,10 @@
         <v>1407</v>
       </c>
       <c r="I167">
-        <v>0.9704704185031948</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.97047041850319482</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>173</v>
       </c>
@@ -7756,13 +7837,13 @@
         <v>175</v>
       </c>
       <c r="C168">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D168" t="s">
         <v>243</v>
       </c>
       <c r="E168">
-        <v>0.98976</v>
+        <v>0.98975999999999997</v>
       </c>
       <c r="F168">
         <v>133696</v>
@@ -7774,10 +7855,10 @@
         <v>1407</v>
       </c>
       <c r="I168">
-        <v>0.9735612924320313</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.97356129243203127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>174</v>
       </c>
@@ -7785,13 +7866,13 @@
         <v>176</v>
       </c>
       <c r="C169">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D169" t="s">
         <v>243</v>
       </c>
       <c r="E169">
-        <v>0.988416</v>
+        <v>0.98841599999999996</v>
       </c>
       <c r="F169">
         <v>132352</v>
@@ -7803,10 +7884,10 @@
         <v>1405</v>
       </c>
       <c r="I169">
-        <v>0.97183632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.97183631999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>175</v>
       </c>
@@ -7814,13 +7895,13 @@
         <v>177</v>
       </c>
       <c r="C170">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D170" t="s">
         <v>243</v>
       </c>
       <c r="E170">
-        <v>0.990336</v>
+        <v>0.99033599999999999</v>
       </c>
       <c r="F170">
         <v>134272</v>
@@ -7832,10 +7913,10 @@
         <v>1407</v>
       </c>
       <c r="I170">
-        <v>0.9751852799999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.97518527999999982</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>176</v>
       </c>
@@ -7843,13 +7924,13 @@
         <v>178</v>
       </c>
       <c r="C171">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D171" t="s">
         <v>243</v>
       </c>
       <c r="E171">
-        <v>0.9889279999999999</v>
+        <v>0.98892799999999992</v>
       </c>
       <c r="F171">
         <v>132864</v>
@@ -7861,10 +7942,10 @@
         <v>1408</v>
       </c>
       <c r="I171">
-        <v>0.9746936534243558</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.97469365342435577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>177</v>
       </c>
@@ -7872,13 +7953,13 @@
         <v>179</v>
       </c>
       <c r="C172">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D172" t="s">
         <v>243</v>
       </c>
       <c r="E172">
-        <v>0.991744</v>
+        <v>0.99174399999999996</v>
       </c>
       <c r="F172">
         <v>135680</v>
@@ -7893,7 +7974,7 @@
         <v>0.9763028800000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>178</v>
       </c>
@@ -7901,13 +7982,13 @@
         <v>180</v>
       </c>
       <c r="C173">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D173" t="s">
         <v>243</v>
       </c>
       <c r="E173">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="F173">
         <v>127936</v>
@@ -7919,10 +8000,10 @@
         <v>1404</v>
       </c>
       <c r="I173">
-        <v>0.9688152732892304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.96881527328923045</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>179</v>
       </c>
@@ -7930,13 +8011,13 @@
         <v>181</v>
       </c>
       <c r="C174">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D174" t="s">
         <v>243</v>
       </c>
       <c r="E174">
-        <v>0.990078125</v>
+        <v>0.99007812500000003</v>
       </c>
       <c r="F174">
         <v>134016</v>
@@ -7948,10 +8029,10 @@
         <v>1408</v>
       </c>
       <c r="I174">
-        <v>0.9749642765295922</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.97496427652959217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>180</v>
       </c>
@@ -7959,13 +8040,13 @@
         <v>182</v>
       </c>
       <c r="C175">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D175" t="s">
         <v>243</v>
       </c>
       <c r="E175">
-        <v>0.984896</v>
+        <v>0.98489599999999999</v>
       </c>
       <c r="F175">
         <v>128832</v>
@@ -7977,10 +8058,10 @@
         <v>1405</v>
       </c>
       <c r="I175">
-        <v>0.969588</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.96958800000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>181</v>
       </c>
@@ -7988,13 +8069,13 @@
         <v>183</v>
       </c>
       <c r="C176">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D176" t="s">
         <v>243</v>
       </c>
       <c r="E176">
-        <v>0.975552</v>
+        <v>0.97555199999999997</v>
       </c>
       <c r="F176">
         <v>119488</v>
@@ -8006,10 +8087,10 @@
         <v>1400</v>
       </c>
       <c r="I176">
-        <v>0.9589939199999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.95899391999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>182</v>
       </c>
@@ -8017,13 +8098,13 @@
         <v>184</v>
       </c>
       <c r="C177">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D177" t="s">
         <v>243</v>
       </c>
       <c r="E177">
-        <v>0.9857279999999999</v>
+        <v>0.98572799999999994</v>
       </c>
       <c r="F177">
         <v>129664</v>
@@ -8035,10 +8116,10 @@
         <v>1403</v>
       </c>
       <c r="I177">
-        <v>0.9691262407371029</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.96912624073710285</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>188</v>
       </c>
@@ -8046,13 +8127,13 @@
         <v>185</v>
       </c>
       <c r="C178">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D178" t="s">
         <v>243</v>
       </c>
       <c r="E178">
-        <v>0.988096</v>
+        <v>0.98809599999999997</v>
       </c>
       <c r="F178">
         <v>132032</v>
@@ -8067,7 +8148,7 @@
         <v>0.9723473297882248</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>189</v>
       </c>
@@ -8075,13 +8156,13 @@
         <v>186</v>
       </c>
       <c r="C179">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D179" t="s">
         <v>243</v>
       </c>
       <c r="E179">
-        <v>0.985984</v>
+        <v>0.98598399999999997</v>
       </c>
       <c r="F179">
         <v>129920</v>
@@ -8093,10 +8174,10 @@
         <v>1404</v>
       </c>
       <c r="I179">
-        <v>0.9684899537833594</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.96848995378335945</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>190</v>
       </c>
@@ -8104,13 +8185,13 @@
         <v>187</v>
       </c>
       <c r="C180">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D180" t="s">
         <v>243</v>
       </c>
       <c r="E180">
-        <v>0.9802879999999999</v>
+        <v>0.98028799999999994</v>
       </c>
       <c r="F180">
         <v>124224</v>
@@ -8122,10 +8203,10 @@
         <v>1406</v>
       </c>
       <c r="I180">
-        <v>0.9656407999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.96564079999999985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>191</v>
       </c>
@@ -8133,13 +8214,13 @@
         <v>188</v>
       </c>
       <c r="C181">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D181" t="s">
         <v>243</v>
       </c>
       <c r="E181">
-        <v>0.983872</v>
+        <v>0.98387199999999997</v>
       </c>
       <c r="F181">
         <v>127808</v>
@@ -8151,10 +8232,10 @@
         <v>1406</v>
       </c>
       <c r="I181">
-        <v>0.9685065162839535</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.96850651628395346</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>192</v>
       </c>
@@ -8162,13 +8243,13 @@
         <v>189</v>
       </c>
       <c r="C182">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D182" t="s">
         <v>243</v>
       </c>
       <c r="E182">
-        <v>0.9877119999999999</v>
+        <v>0.98771199999999992</v>
       </c>
       <c r="F182">
         <v>131648</v>
@@ -8180,10 +8261,10 @@
         <v>1408</v>
       </c>
       <c r="I182">
-        <v>0.9743260799999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.97432607999999987</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>193</v>
       </c>
@@ -8191,13 +8272,13 @@
         <v>190</v>
       </c>
       <c r="C183">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D183" t="s">
         <v>243</v>
       </c>
       <c r="E183">
-        <v>0.983872</v>
+        <v>0.98387199999999997</v>
       </c>
       <c r="F183">
         <v>127808</v>
@@ -8209,10 +8290,10 @@
         <v>1406</v>
       </c>
       <c r="I183">
-        <v>0.9699187040037063</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.96991870400370628</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>194</v>
       </c>
@@ -8220,13 +8301,13 @@
         <v>191</v>
       </c>
       <c r="C184">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D184" t="s">
         <v>243</v>
       </c>
       <c r="E184">
-        <v>0.986304</v>
+        <v>0.98630399999999996</v>
       </c>
       <c r="F184">
         <v>130240</v>
@@ -8238,10 +8319,10 @@
         <v>1410</v>
       </c>
       <c r="I184">
-        <v>0.9695674580129829</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.96956745801298294</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>195</v>
       </c>
@@ -8249,13 +8330,13 @@
         <v>192</v>
       </c>
       <c r="C185">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D185" t="s">
         <v>243</v>
       </c>
       <c r="E185">
-        <v>0.993664</v>
+        <v>0.99366399999999999</v>
       </c>
       <c r="F185">
         <v>137600</v>
@@ -8267,10 +8348,10 @@
         <v>1413</v>
       </c>
       <c r="I185">
-        <v>0.9768692693273008</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.97686926932730078</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>196</v>
       </c>
@@ -8278,13 +8359,13 @@
         <v>193</v>
       </c>
       <c r="C186">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D186" t="s">
         <v>243</v>
       </c>
       <c r="E186">
-        <v>0.9895039999999999</v>
+        <v>0.98950399999999994</v>
       </c>
       <c r="F186">
         <v>133440</v>
@@ -8296,10 +8377,10 @@
         <v>1408</v>
       </c>
       <c r="I186">
-        <v>0.9726463999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.97264639999999991</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>197</v>
       </c>
@@ -8307,13 +8388,13 @@
         <v>194</v>
       </c>
       <c r="C187">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D187" t="s">
         <v>243</v>
       </c>
       <c r="E187">
-        <v>0.986752</v>
+        <v>0.98675199999999996</v>
       </c>
       <c r="F187">
         <v>130688</v>
@@ -8325,10 +8406,10 @@
         <v>1409</v>
       </c>
       <c r="I187">
-        <v>0.96896592</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.96896592000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>198</v>
       </c>
@@ -8336,13 +8417,13 @@
         <v>195</v>
       </c>
       <c r="C188">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D188" t="s">
         <v>243</v>
       </c>
       <c r="E188">
-        <v>0.9869439999999999</v>
+        <v>0.98694399999999993</v>
       </c>
       <c r="F188">
         <v>130880</v>
@@ -8354,10 +8435,10 @@
         <v>1407</v>
       </c>
       <c r="I188">
-        <v>0.9689918399999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.96899183999999983</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>199</v>
       </c>
@@ -8365,13 +8446,13 @@
         <v>196</v>
       </c>
       <c r="C189">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D189" t="s">
         <v>243</v>
       </c>
       <c r="E189">
-        <v>0.9896959999999999</v>
+        <v>0.98969599999999991</v>
       </c>
       <c r="F189">
         <v>133632</v>
@@ -8383,10 +8464,10 @@
         <v>1409</v>
       </c>
       <c r="I189">
-        <v>0.9743312118297591</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.97433121182975913</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>200</v>
       </c>
@@ -8394,13 +8475,13 @@
         <v>197</v>
       </c>
       <c r="C190">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D190" t="s">
         <v>243</v>
       </c>
       <c r="E190">
-        <v>0.988352</v>
+        <v>0.98835200000000001</v>
       </c>
       <c r="F190">
         <v>132288</v>
@@ -8412,10 +8493,10 @@
         <v>1406</v>
       </c>
       <c r="I190">
-        <v>0.972405340975367</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.97240534097536702</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>201</v>
       </c>
@@ -8423,7 +8504,7 @@
         <v>198</v>
       </c>
       <c r="C191">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D191" t="s">
         <v>243</v>
@@ -8441,10 +8522,10 @@
         <v>1410</v>
       </c>
       <c r="I191">
-        <v>0.981654191656386</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.98165419165638601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>202</v>
       </c>
@@ -8452,13 +8533,13 @@
         <v>199</v>
       </c>
       <c r="C192">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D192" t="s">
         <v>243</v>
       </c>
       <c r="E192">
-        <v>0.9946879999999999</v>
+        <v>0.99468799999999991</v>
       </c>
       <c r="F192">
         <v>138624</v>
@@ -8470,10 +8551,10 @@
         <v>1410</v>
       </c>
       <c r="I192">
-        <v>0.9813337575153172</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.98133375751531715</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>203</v>
       </c>
@@ -8481,13 +8562,13 @@
         <v>200</v>
       </c>
       <c r="C193">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D193" t="s">
         <v>243</v>
       </c>
       <c r="E193">
-        <v>0.98688</v>
+        <v>0.98687999999999998</v>
       </c>
       <c r="F193">
         <v>130816</v>
@@ -8499,10 +8580,10 @@
         <v>1404</v>
       </c>
       <c r="I193">
-        <v>0.9721215999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.97212159999999992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>204</v>
       </c>
@@ -8510,13 +8591,13 @@
         <v>201</v>
       </c>
       <c r="C194">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D194" t="s">
         <v>243</v>
       </c>
       <c r="E194">
-        <v>0.992192</v>
+        <v>0.99219199999999996</v>
       </c>
       <c r="F194">
         <v>136128</v>
@@ -8531,7 +8612,7 @@
         <v>0.9784627199999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>205</v>
       </c>
@@ -8539,13 +8620,13 @@
         <v>202</v>
       </c>
       <c r="C195">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D195" t="s">
         <v>243</v>
       </c>
       <c r="E195">
-        <v>0.9877119999999999</v>
+        <v>0.98771199999999992</v>
       </c>
       <c r="F195">
         <v>131648</v>
@@ -8557,10 +8638,10 @@
         <v>1406</v>
       </c>
       <c r="I195">
-        <v>0.9735056</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.97350559999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>206</v>
       </c>
@@ -8568,13 +8649,13 @@
         <v>203</v>
       </c>
       <c r="C196">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D196" t="s">
         <v>243</v>
       </c>
       <c r="E196">
-        <v>0.98432</v>
+        <v>0.98431999999999997</v>
       </c>
       <c r="F196">
         <v>128256</v>
@@ -8586,10 +8667,10 @@
         <v>1408</v>
       </c>
       <c r="I196">
-        <v>0.96812736</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.96812735999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>207</v>
       </c>
@@ -8597,13 +8678,13 @@
         <v>204</v>
       </c>
       <c r="C197">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D197" t="s">
         <v>243</v>
       </c>
       <c r="E197">
-        <v>0.980672</v>
+        <v>0.98067199999999999</v>
       </c>
       <c r="F197">
         <v>124608</v>
@@ -8615,10 +8696,10 @@
         <v>1403</v>
       </c>
       <c r="I197">
-        <v>0.9639924799999998</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.96399247999999982</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>208</v>
       </c>
@@ -8626,13 +8707,13 @@
         <v>205</v>
       </c>
       <c r="C198">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D198" t="s">
         <v>243</v>
       </c>
       <c r="E198">
-        <v>0.985984</v>
+        <v>0.98598399999999997</v>
       </c>
       <c r="F198">
         <v>129920</v>
@@ -8644,10 +8725,10 @@
         <v>1407</v>
       </c>
       <c r="I198">
-        <v>0.9687818957631844</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.96878189576318441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>210</v>
       </c>
@@ -8655,13 +8736,13 @@
         <v>206</v>
       </c>
       <c r="C199">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D199" t="s">
         <v>243</v>
       </c>
       <c r="E199">
-        <v>1.01856</v>
+        <v>1.0185599999999999</v>
       </c>
       <c r="F199">
         <v>162496</v>
@@ -8676,7 +8757,7 @@
         <v>1.064601978413162</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>211</v>
       </c>
@@ -8684,13 +8765,13 @@
         <v>207</v>
       </c>
       <c r="C200">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D200" t="s">
         <v>243</v>
       </c>
       <c r="E200">
-        <v>0.9896959999999999</v>
+        <v>0.98969599999999991</v>
       </c>
       <c r="F200">
         <v>133632</v>
@@ -8702,10 +8783,10 @@
         <v>1682</v>
       </c>
       <c r="I200">
-        <v>1.106686371477721</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>1.1066863714777211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>213</v>
       </c>
@@ -8713,7 +8794,7 @@
         <v>208</v>
       </c>
       <c r="C201">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D201" t="s">
         <v>243</v>
@@ -8734,7 +8815,7 @@
         <v>1.085968618627855</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>214</v>
       </c>
@@ -8742,13 +8823,13 @@
         <v>209</v>
       </c>
       <c r="C202">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D202" t="s">
         <v>243</v>
       </c>
       <c r="E202">
-        <v>0.987328</v>
+        <v>0.98732799999999998</v>
       </c>
       <c r="F202">
         <v>131264</v>
@@ -8760,10 +8841,10 @@
         <v>1411</v>
       </c>
       <c r="I202">
-        <v>0.9711807999999998</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.97118079999999984</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>215</v>
       </c>
@@ -8771,13 +8852,13 @@
         <v>210</v>
       </c>
       <c r="C203">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D203" t="s">
         <v>243</v>
       </c>
       <c r="E203">
-        <v>0.9592959999999999</v>
+        <v>0.95929599999999993</v>
       </c>
       <c r="F203">
         <v>103232</v>
@@ -8789,10 +8870,10 @@
         <v>1508</v>
       </c>
       <c r="I203">
-        <v>0.9470843384459399</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.94708433844593987</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>216</v>
       </c>
@@ -8800,13 +8881,13 @@
         <v>211</v>
       </c>
       <c r="C204">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D204" t="s">
         <v>243</v>
       </c>
       <c r="E204">
-        <v>0.9972479999999999</v>
+        <v>0.99724799999999991</v>
       </c>
       <c r="F204">
         <v>141184</v>
@@ -8818,10 +8899,10 @@
         <v>1557</v>
       </c>
       <c r="I204">
-        <v>0.9809417566931112</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.98094175669311123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>221</v>
       </c>
@@ -8829,13 +8910,13 @@
         <v>212</v>
       </c>
       <c r="C205">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D205" t="s">
         <v>243</v>
       </c>
       <c r="E205">
-        <v>0.9887359999999999</v>
+        <v>0.98873599999999995</v>
       </c>
       <c r="F205">
         <v>132672</v>
@@ -8847,10 +8928,10 @@
         <v>1407</v>
       </c>
       <c r="I205">
-        <v>0.9738474736868828</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.97384747368688285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>224</v>
       </c>
@@ -8858,13 +8939,13 @@
         <v>213</v>
       </c>
       <c r="C206">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D206" t="s">
         <v>243</v>
       </c>
       <c r="E206">
-        <v>0.9886079999999999</v>
+        <v>0.98860799999999993</v>
       </c>
       <c r="F206">
         <v>132544</v>
@@ -8876,10 +8957,10 @@
         <v>1406</v>
       </c>
       <c r="I206">
-        <v>0.9730079728208336</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.97300797282083362</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>225</v>
       </c>
@@ -8887,13 +8968,13 @@
         <v>214</v>
       </c>
       <c r="C207">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D207" t="s">
         <v>243</v>
       </c>
       <c r="E207">
-        <v>0.9893759999999999</v>
+        <v>0.98937599999999992</v>
       </c>
       <c r="F207">
         <v>133312</v>
@@ -8905,10 +8986,10 @@
         <v>1407</v>
       </c>
       <c r="I207">
-        <v>0.9729488342227426</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.97294883422274259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>226</v>
       </c>
@@ -8916,13 +8997,13 @@
         <v>215</v>
       </c>
       <c r="C208">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D208" t="s">
         <v>243</v>
       </c>
       <c r="E208">
-        <v>0.9863679999999999</v>
+        <v>0.98636799999999991</v>
       </c>
       <c r="F208">
         <v>130304</v>
@@ -8937,7 +9018,7 @@
         <v>0.9695548799999999</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>227</v>
       </c>
@@ -8945,13 +9026,13 @@
         <v>216</v>
       </c>
       <c r="C209">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D209" t="s">
         <v>243</v>
       </c>
       <c r="E209">
-        <v>0.9898239999999999</v>
+        <v>0.98982399999999993</v>
       </c>
       <c r="F209">
         <v>133760</v>
@@ -8963,10 +9044,10 @@
         <v>1408</v>
       </c>
       <c r="I209">
-        <v>0.9751918924090565</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.97519189240905646</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>228</v>
       </c>
@@ -8974,13 +9055,13 @@
         <v>217</v>
       </c>
       <c r="C210">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D210" t="s">
         <v>243</v>
       </c>
       <c r="E210">
-        <v>0.991424</v>
+        <v>0.99142399999999997</v>
       </c>
       <c r="F210">
         <v>135360</v>
@@ -8992,10 +9073,10 @@
         <v>1406</v>
       </c>
       <c r="I210">
-        <v>0.9763263999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.97632639999999993</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>229</v>
       </c>
@@ -9003,13 +9084,13 @@
         <v>218</v>
       </c>
       <c r="C211">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D211" t="s">
         <v>243</v>
       </c>
       <c r="E211">
-        <v>0.9886079999999999</v>
+        <v>0.98860799999999993</v>
       </c>
       <c r="F211">
         <v>132544</v>
@@ -9024,7 +9105,7 @@
         <v>0.9732374399999999</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>230</v>
       </c>
@@ -9032,13 +9113,13 @@
         <v>219</v>
       </c>
       <c r="C212">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D212" t="s">
         <v>243</v>
       </c>
       <c r="E212">
-        <v>0.985024</v>
+        <v>0.98502400000000001</v>
       </c>
       <c r="F212">
         <v>128960</v>
@@ -9050,10 +9131,10 @@
         <v>1401</v>
       </c>
       <c r="I212">
-        <v>0.9702066934527774</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.97020669345277744</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>231</v>
       </c>
@@ -9061,13 +9142,13 @@
         <v>220</v>
       </c>
       <c r="C213">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D213" t="s">
         <v>243</v>
       </c>
       <c r="E213">
-        <v>0.9873919999999999</v>
+        <v>0.98739199999999994</v>
       </c>
       <c r="F213">
         <v>131328</v>
@@ -9079,10 +9160,10 @@
         <v>1414</v>
       </c>
       <c r="I213">
-        <v>0.9739787924496935</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.97397879244969354</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>232</v>
       </c>
@@ -9090,13 +9171,13 @@
         <v>221</v>
       </c>
       <c r="C214">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D214" t="s">
         <v>243</v>
       </c>
       <c r="E214">
-        <v>0.984768</v>
+        <v>0.98476799999999998</v>
       </c>
       <c r="F214">
         <v>128704</v>
@@ -9108,10 +9189,10 @@
         <v>1411</v>
       </c>
       <c r="I214">
-        <v>0.9680987561579051</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.96809875615790508</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>233</v>
       </c>
@@ -9119,13 +9200,13 @@
         <v>222</v>
       </c>
       <c r="C215">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D215" t="s">
         <v>243</v>
       </c>
       <c r="E215">
-        <v>0.988864</v>
+        <v>0.98886399999999997</v>
       </c>
       <c r="F215">
         <v>132800</v>
@@ -9137,10 +9218,10 @@
         <v>1407</v>
       </c>
       <c r="I215">
-        <v>0.9737823999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.97378239999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>234</v>
       </c>
@@ -9148,7 +9229,7 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D216" t="s">
         <v>243</v>
@@ -9166,10 +9247,10 @@
         <v>1407</v>
       </c>
       <c r="I216">
-        <v>0.9768901777780583</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.97689017777805831</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>238</v>
       </c>
@@ -9177,13 +9258,13 @@
         <v>224</v>
       </c>
       <c r="C217">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D217" t="s">
         <v>243</v>
       </c>
       <c r="E217">
-        <v>1.004096</v>
+        <v>1.0040960000000001</v>
       </c>
       <c r="F217">
         <v>148032</v>
@@ -9198,7 +9279,7 @@
         <v>1.101451019345367</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>239</v>
       </c>
@@ -9206,13 +9287,13 @@
         <v>225</v>
       </c>
       <c r="C218">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D218" t="s">
         <v>243</v>
       </c>
       <c r="E218">
-        <v>0.9680639999999999</v>
+        <v>0.96806399999999992</v>
       </c>
       <c r="F218">
         <v>112000</v>
@@ -9227,7 +9308,7 @@
         <v>1.018011406456973</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>241</v>
       </c>
@@ -9235,13 +9316,13 @@
         <v>226</v>
       </c>
       <c r="C219">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D219" t="s">
         <v>243</v>
       </c>
       <c r="E219">
-        <v>0.9790719999999999</v>
+        <v>0.97907199999999994</v>
       </c>
       <c r="F219">
         <v>123008</v>
@@ -9253,10 +9334,10 @@
         <v>1520</v>
       </c>
       <c r="I219">
-        <v>0.9556053084798224</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.95560530847982239</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>242</v>
       </c>
@@ -9264,13 +9345,13 @@
         <v>227</v>
       </c>
       <c r="C220">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D220" t="s">
         <v>243</v>
       </c>
       <c r="E220">
-        <v>0.9880319999999999</v>
+        <v>0.98803199999999991</v>
       </c>
       <c r="F220">
         <v>131968</v>
@@ -9282,10 +9363,10 @@
         <v>1534</v>
       </c>
       <c r="I220">
-        <v>0.9760655222290089</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>0.97606552222900889</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>253</v>
       </c>
@@ -9293,13 +9374,13 @@
         <v>228</v>
       </c>
       <c r="C221">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D221" t="s">
         <v>243</v>
       </c>
       <c r="E221">
-        <v>0.99744</v>
+        <v>0.99743999999999999</v>
       </c>
       <c r="F221">
         <v>141376</v>
@@ -9311,10 +9392,10 @@
         <v>1406</v>
       </c>
       <c r="I221">
-        <v>0.9813879999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.98138799999999993</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>261</v>
       </c>
@@ -9322,13 +9403,13 @@
         <v>229</v>
       </c>
       <c r="C222">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D222" t="s">
         <v>243</v>
       </c>
       <c r="E222">
-        <v>0.9875839999999999</v>
+        <v>0.98758399999999991</v>
       </c>
       <c r="F222">
         <v>131520</v>
@@ -9343,7 +9424,7 @@
         <v>1.11151393906577</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>267</v>
       </c>
@@ -9351,7 +9432,7 @@
         <v>230</v>
       </c>
       <c r="C223">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D223" t="s">
         <v>243</v>
@@ -9372,7 +9453,7 @@
         <v>1.04313926668096</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>270</v>
       </c>
@@ -9380,13 +9461,13 @@
         <v>231</v>
       </c>
       <c r="C224">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D224" t="s">
         <v>243</v>
       </c>
       <c r="E224">
-        <v>1.014976</v>
+        <v>1.0149760000000001</v>
       </c>
       <c r="F224">
         <v>158912</v>
@@ -9398,10 +9479,10 @@
         <v>1672</v>
       </c>
       <c r="I224">
-        <v>1.088669956622932</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>1.0886699566229321</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>279</v>
       </c>
@@ -9409,13 +9490,13 @@
         <v>232</v>
       </c>
       <c r="C225">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D225" t="s">
         <v>243</v>
       </c>
       <c r="E225">
-        <v>1.006592</v>
+        <v>1.0065919999999999</v>
       </c>
       <c r="F225">
         <v>150528</v>
@@ -9430,7 +9511,7 @@
         <v>1.036453517488573</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>289</v>
       </c>
@@ -9438,13 +9519,13 @@
         <v>233</v>
       </c>
       <c r="C226">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D226" t="s">
         <v>243</v>
       </c>
       <c r="E226">
-        <v>0.9685119999999999</v>
+        <v>0.96851199999999993</v>
       </c>
       <c r="F226">
         <v>112448</v>
@@ -9459,7 +9540,7 @@
         <v>1.076243840144248</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>298</v>
       </c>
@@ -9467,7 +9548,7 @@
         <v>234</v>
       </c>
       <c r="C227">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D227" t="s">
         <v>243</v>
@@ -9485,10 +9566,10 @@
         <v>1683</v>
       </c>
       <c r="I227">
-        <v>1.11158528</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>1.1115852799999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>300</v>
       </c>
@@ -9496,13 +9577,13 @@
         <v>235</v>
       </c>
       <c r="C228">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D228" t="s">
         <v>243</v>
       </c>
       <c r="E228">
-        <v>1.012928</v>
+        <v>1.0129280000000001</v>
       </c>
       <c r="F228">
         <v>156864</v>
@@ -9517,7 +9598,7 @@
         <v>1.093500779846146</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>302</v>
       </c>
@@ -9525,13 +9606,13 @@
         <v>236</v>
       </c>
       <c r="C229">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D229" t="s">
         <v>243</v>
       </c>
       <c r="E229">
-        <v>0.9984639999999999</v>
+        <v>0.99846399999999991</v>
       </c>
       <c r="F229">
         <v>142400</v>
@@ -9546,7 +9627,7 @@
         <v>0.941522693205049</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>303</v>
       </c>
@@ -9554,13 +9635,13 @@
         <v>237</v>
       </c>
       <c r="C230">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D230" t="s">
         <v>243</v>
       </c>
       <c r="E230">
-        <v>0.990848</v>
+        <v>0.99084799999999995</v>
       </c>
       <c r="F230">
         <v>134784</v>
@@ -9572,10 +9653,10 @@
         <v>1401</v>
       </c>
       <c r="I230">
-        <v>0.9738475434899801</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.97384754348998015</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>305</v>
       </c>
@@ -9583,13 +9664,13 @@
         <v>238</v>
       </c>
       <c r="C231">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D231" t="s">
         <v>243</v>
       </c>
       <c r="E231">
-        <v>1.006528</v>
+        <v>1.0065280000000001</v>
       </c>
       <c r="F231">
         <v>150464</v>
@@ -9604,7 +9685,7 @@
         <v>1.05913793172121</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>308</v>
       </c>
@@ -9612,13 +9693,13 @@
         <v>239</v>
       </c>
       <c r="C232">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D232" t="s">
         <v>243</v>
       </c>
       <c r="E232">
-        <v>1.019392</v>
+        <v>1.0193920000000001</v>
       </c>
       <c r="F232">
         <v>163328</v>
@@ -9630,10 +9711,10 @@
         <v>1503</v>
       </c>
       <c r="I232">
-        <v>0.9845686505116976</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.98456865051169762</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>309</v>
       </c>
@@ -9641,13 +9722,13 @@
         <v>240</v>
       </c>
       <c r="C233">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D233" t="s">
         <v>243</v>
       </c>
       <c r="E233">
-        <v>0.993664</v>
+        <v>0.99366399999999999</v>
       </c>
       <c r="F233">
         <v>137600</v>
@@ -9659,10 +9740,10 @@
         <v>1412</v>
       </c>
       <c r="I233">
-        <v>0.9816134399999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.98161343999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>310</v>
       </c>
@@ -9670,13 +9751,13 @@
         <v>241</v>
       </c>
       <c r="C234">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D234" t="s">
         <v>243</v>
       </c>
       <c r="E234">
-        <v>1.001408</v>
+        <v>1.0014080000000001</v>
       </c>
       <c r="F234">
         <v>145344</v>
@@ -9691,7 +9772,7 @@
         <v>1.09466544</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>312</v>
       </c>
@@ -9699,13 +9780,13 @@
         <v>242</v>
       </c>
       <c r="C235">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D235" t="s">
         <v>243</v>
       </c>
       <c r="E235">
-        <v>1.019008</v>
+        <v>1.0190079999999999</v>
       </c>
       <c r="F235">
         <v>162944</v>
@@ -9721,20 +9802,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>157</v>
       </c>
@@ -9771,13 +9853,13 @@
         <v>244</v>
       </c>
       <c r="C2">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D2" t="s">
         <v>243</v>
       </c>
       <c r="E2">
-        <v>1.062464</v>
+        <v>1.0624640000000001</v>
       </c>
       <c r="F2">
         <v>206400</v>
@@ -9789,10 +9871,10 @@
         <v>1611</v>
       </c>
       <c r="I2">
-        <v>1.022399121661069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.0223991216610691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>158</v>
       </c>
@@ -9800,13 +9882,13 @@
         <v>245</v>
       </c>
       <c r="C3">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D3" t="s">
         <v>243</v>
       </c>
       <c r="E3">
-        <v>1.097792</v>
+        <v>1.0977920000000001</v>
       </c>
       <c r="F3">
         <v>241728</v>
@@ -9821,7 +9903,7 @@
         <v>1.077303806110824</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>159</v>
       </c>
@@ -9829,7 +9911,7 @@
         <v>246</v>
       </c>
       <c r="C4">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D4" t="s">
         <v>243</v>
@@ -9850,7 +9932,7 @@
         <v>1.046917068541428</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>160</v>
       </c>
@@ -9858,7 +9940,7 @@
         <v>247</v>
       </c>
       <c r="C5">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D5" t="s">
         <v>243</v>
@@ -9876,10 +9958,10 @@
         <v>1688</v>
       </c>
       <c r="I5">
-        <v>1.103248051989867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.1032480519898671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>161</v>
       </c>
@@ -9887,13 +9969,13 @@
         <v>248</v>
       </c>
       <c r="C6">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D6" t="s">
         <v>243</v>
       </c>
       <c r="E6">
-        <v>1.066112</v>
+        <v>1.0661119999999999</v>
       </c>
       <c r="F6">
         <v>210048</v>
@@ -9908,7 +9990,7 @@
         <v>1.144825271624514</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>184</v>
       </c>
@@ -9916,13 +9998,13 @@
         <v>249</v>
       </c>
       <c r="C7">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D7" t="s">
         <v>243</v>
       </c>
       <c r="E7">
-        <v>1.06112</v>
+        <v>1.0611200000000001</v>
       </c>
       <c r="F7">
         <v>205056</v>
@@ -9937,7 +10019,7 @@
         <v>1.07682527718776</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>185</v>
       </c>
@@ -9945,13 +10027,13 @@
         <v>250</v>
       </c>
       <c r="C8">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D8" t="s">
         <v>243</v>
       </c>
       <c r="E8">
-        <v>1.082688</v>
+        <v>1.0826880000000001</v>
       </c>
       <c r="F8">
         <v>226624</v>
@@ -9966,7 +10048,7 @@
         <v>1.100619689928628</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>186</v>
       </c>
@@ -9974,7 +10056,7 @@
         <v>251</v>
       </c>
       <c r="C9">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D9" t="s">
         <v>243</v>
@@ -9995,7 +10077,7 @@
         <v>1.07524128</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>209</v>
       </c>
@@ -10003,7 +10085,7 @@
         <v>252</v>
       </c>
       <c r="C10">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D10" t="s">
         <v>243</v>
@@ -10024,7 +10106,7 @@
         <v>1.074450929776513</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>212</v>
       </c>
@@ -10032,13 +10114,13 @@
         <v>253</v>
       </c>
       <c r="C11">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D11" t="s">
         <v>243</v>
       </c>
       <c r="E11">
-        <v>1.085376</v>
+        <v>1.0853759999999999</v>
       </c>
       <c r="F11">
         <v>229312</v>
@@ -10053,7 +10135,7 @@
         <v>1.098538767251275</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>217</v>
       </c>
@@ -10061,7 +10143,7 @@
         <v>254</v>
       </c>
       <c r="C12">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D12" t="s">
         <v>243</v>
@@ -10082,7 +10164,7 @@
         <v>1.063059525634789</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>218</v>
       </c>
@@ -10090,7 +10172,7 @@
         <v>255</v>
       </c>
       <c r="C13">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D13" t="s">
         <v>243</v>
@@ -10108,10 +10190,10 @@
         <v>1570</v>
       </c>
       <c r="I13">
-        <v>0.9890921480735224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.98909214807352241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>222</v>
       </c>
@@ -10119,7 +10201,7 @@
         <v>256</v>
       </c>
       <c r="C14">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D14" t="s">
         <v>243</v>
@@ -10140,7 +10222,7 @@
         <v>1.072261628991469</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>223</v>
       </c>
@@ -10148,13 +10230,13 @@
         <v>257</v>
       </c>
       <c r="C15">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D15" t="s">
         <v>243</v>
       </c>
       <c r="E15">
-        <v>1.04256</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="F15">
         <v>186496</v>
@@ -10166,10 +10248,10 @@
         <v>1674</v>
       </c>
       <c r="I15">
-        <v>1.08661024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1.0866102399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>235</v>
       </c>
@@ -10177,13 +10259,13 @@
         <v>258</v>
       </c>
       <c r="C16">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D16" t="s">
         <v>243</v>
       </c>
       <c r="E16">
-        <v>1.047872</v>
+        <v>1.0478719999999999</v>
       </c>
       <c r="F16">
         <v>191808</v>
@@ -10195,10 +10277,10 @@
         <v>1578</v>
       </c>
       <c r="I16">
-        <v>1.036388026350293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1.0363880263502929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>236</v>
       </c>
@@ -10206,13 +10288,13 @@
         <v>259</v>
       </c>
       <c r="C17">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D17" t="s">
         <v>243</v>
       </c>
       <c r="E17">
-        <v>1.078976</v>
+        <v>1.0789759999999999</v>
       </c>
       <c r="F17">
         <v>222912</v>
@@ -10224,10 +10306,10 @@
         <v>1681</v>
       </c>
       <c r="I17">
-        <v>1.101444685381019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1.1014446853810189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>237</v>
       </c>
@@ -10235,13 +10317,13 @@
         <v>260</v>
       </c>
       <c r="C18">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D18" t="s">
         <v>243</v>
       </c>
       <c r="E18">
-        <v>1.067648</v>
+        <v>1.0676479999999999</v>
       </c>
       <c r="F18">
         <v>211584</v>
@@ -10256,7 +10338,7 @@
         <v>1.089700077362038</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>243</v>
       </c>
@@ -10264,13 +10346,13 @@
         <v>261</v>
       </c>
       <c r="C19">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D19" t="s">
         <v>243</v>
       </c>
       <c r="E19">
-        <v>1.099776</v>
+        <v>1.0997760000000001</v>
       </c>
       <c r="F19">
         <v>243712</v>
@@ -10285,7 +10367,7 @@
         <v>1.107080226394269</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>244</v>
       </c>
@@ -10293,7 +10375,7 @@
         <v>262</v>
       </c>
       <c r="C20">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D20" t="s">
         <v>243</v>
@@ -10314,7 +10396,7 @@
         <v>1.093399835099496</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>245</v>
       </c>
@@ -10322,13 +10404,13 @@
         <v>263</v>
       </c>
       <c r="C21">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D21" t="s">
         <v>243</v>
       </c>
       <c r="E21">
-        <v>1.089344</v>
+        <v>1.0893440000000001</v>
       </c>
       <c r="F21">
         <v>233280</v>
@@ -10343,7 +10425,7 @@
         <v>1.094603144270613</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>246</v>
       </c>
@@ -10351,13 +10433,13 @@
         <v>264</v>
       </c>
       <c r="C22">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D22" t="s">
         <v>243</v>
       </c>
       <c r="E22">
-        <v>1.092864</v>
+        <v>1.0928640000000001</v>
       </c>
       <c r="F22">
         <v>236800</v>
@@ -10372,7 +10454,7 @@
         <v>1.084708852068168</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>247</v>
       </c>
@@ -10380,7 +10462,7 @@
         <v>265</v>
       </c>
       <c r="C23">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D23" t="s">
         <v>243</v>
@@ -10401,7 +10483,7 @@
         <v>1.074338030173948</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>249</v>
       </c>
@@ -10409,13 +10491,13 @@
         <v>266</v>
       </c>
       <c r="C24">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D24" t="s">
         <v>243</v>
       </c>
       <c r="E24">
-        <v>1.033856</v>
+        <v>1.0338560000000001</v>
       </c>
       <c r="F24">
         <v>177792</v>
@@ -10427,10 +10509,10 @@
         <v>1580</v>
       </c>
       <c r="I24">
-        <v>1.00703088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>1.0070308800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>250</v>
       </c>
@@ -10438,7 +10520,7 @@
         <v>267</v>
       </c>
       <c r="C25">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D25" t="s">
         <v>243</v>
@@ -10456,10 +10538,10 @@
         <v>1689</v>
       </c>
       <c r="I25">
-        <v>1.086624235880809</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>1.0866242358808089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>254</v>
       </c>
@@ -10467,13 +10549,13 @@
         <v>268</v>
       </c>
       <c r="C26">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D26" t="s">
         <v>243</v>
       </c>
       <c r="E26">
-        <v>1.02368</v>
+        <v>1.0236799999999999</v>
       </c>
       <c r="F26">
         <v>167616</v>
@@ -10488,7 +10570,7 @@
         <v>1.062532536005288</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>255</v>
       </c>
@@ -10496,13 +10578,13 @@
         <v>269</v>
       </c>
       <c r="C27">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D27" t="s">
         <v>243</v>
       </c>
       <c r="E27">
-        <v>1.063424</v>
+        <v>1.0634239999999999</v>
       </c>
       <c r="F27">
         <v>207360</v>
@@ -10517,7 +10599,7 @@
         <v>1.100252124449272</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>256</v>
       </c>
@@ -10525,13 +10607,13 @@
         <v>270</v>
       </c>
       <c r="C28">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D28" t="s">
         <v>243</v>
       </c>
       <c r="E28">
-        <v>1.093632</v>
+        <v>1.0936319999999999</v>
       </c>
       <c r="F28">
         <v>237568</v>
@@ -10546,7 +10628,7 @@
         <v>1.094466599960646</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>257</v>
       </c>
@@ -10554,13 +10636,13 @@
         <v>271</v>
       </c>
       <c r="C29">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D29" t="s">
         <v>243</v>
       </c>
       <c r="E29">
-        <v>1.079616</v>
+        <v>1.0796159999999999</v>
       </c>
       <c r="F29">
         <v>223552</v>
@@ -10572,10 +10654,10 @@
         <v>1596</v>
       </c>
       <c r="I29">
-        <v>1.02906827453652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>1.0290682745365201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>258</v>
       </c>
@@ -10583,7 +10665,7 @@
         <v>272</v>
       </c>
       <c r="C30">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D30" t="s">
         <v>243</v>
@@ -10601,10 +10683,10 @@
         <v>1636</v>
       </c>
       <c r="I30">
-        <v>1.03524027376785</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>1.0352402737678501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>259</v>
       </c>
@@ -10612,7 +10694,7 @@
         <v>273</v>
       </c>
       <c r="C31">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D31" t="s">
         <v>243</v>
@@ -10630,10 +10712,10 @@
         <v>1666</v>
       </c>
       <c r="I31">
-        <v>1.094939668395602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>1.0949396683956021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>260</v>
       </c>
@@ -10641,13 +10723,13 @@
         <v>274</v>
       </c>
       <c r="C32">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D32" t="s">
         <v>243</v>
       </c>
       <c r="E32">
-        <v>1.059008</v>
+        <v>1.0590079999999999</v>
       </c>
       <c r="F32">
         <v>202944</v>
@@ -10662,7 +10744,7 @@
         <v>1.060971488861473</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>262</v>
       </c>
@@ -10670,13 +10752,13 @@
         <v>275</v>
       </c>
       <c r="C33">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D33" t="s">
         <v>243</v>
       </c>
       <c r="E33">
-        <v>1.122048</v>
+        <v>1.1220479999999999</v>
       </c>
       <c r="F33">
         <v>265984</v>
@@ -10691,7 +10773,7 @@
         <v>1.116057910987273</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>264</v>
       </c>
@@ -10699,13 +10781,13 @@
         <v>276</v>
       </c>
       <c r="C34">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D34" t="s">
         <v>243</v>
       </c>
       <c r="E34">
-        <v>1.041408</v>
+        <v>1.0414079999999999</v>
       </c>
       <c r="F34">
         <v>185344</v>
@@ -10720,7 +10802,7 @@
         <v>1.02531332872093</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>268</v>
       </c>
@@ -10728,13 +10810,13 @@
         <v>277</v>
       </c>
       <c r="C35">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D35" t="s">
         <v>243</v>
       </c>
       <c r="E35">
-        <v>1.042304</v>
+        <v>1.0423039999999999</v>
       </c>
       <c r="F35">
         <v>186240</v>
@@ -10749,7 +10831,7 @@
         <v>1.034428040754344</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>269</v>
       </c>
@@ -10757,13 +10839,13 @@
         <v>278</v>
       </c>
       <c r="C36">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D36" t="s">
         <v>243</v>
       </c>
       <c r="E36">
-        <v>1.10848</v>
+        <v>1.1084799999999999</v>
       </c>
       <c r="F36">
         <v>252416</v>
@@ -10775,10 +10857,10 @@
         <v>1602</v>
       </c>
       <c r="I36">
-        <v>1.063441960880065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>1.0634419608800649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>271</v>
       </c>
@@ -10786,7 +10868,7 @@
         <v>279</v>
       </c>
       <c r="C37">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D37" t="s">
         <v>243</v>
@@ -10804,10 +10886,10 @@
         <v>1684</v>
       </c>
       <c r="I37">
-        <v>1.079043198857505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>1.0790431988575051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>272</v>
       </c>
@@ -10815,7 +10897,7 @@
         <v>280</v>
       </c>
       <c r="C38">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D38" t="s">
         <v>243</v>
@@ -10836,7 +10918,7 @@
         <v>1.105180912207445</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>273</v>
       </c>
@@ -10844,7 +10926,7 @@
         <v>281</v>
       </c>
       <c r="C39">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D39" t="s">
         <v>243</v>
@@ -10865,7 +10947,7 @@
         <v>1.092327336563359</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>274</v>
       </c>
@@ -10873,7 +10955,7 @@
         <v>282</v>
       </c>
       <c r="C40">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -10894,7 +10976,7 @@
         <v>1.075750201053018</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>276</v>
       </c>
@@ -10902,13 +10984,13 @@
         <v>283</v>
       </c>
       <c r="C41">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D41" t="s">
         <v>243</v>
       </c>
       <c r="E41">
-        <v>1.109568</v>
+        <v>1.1095680000000001</v>
       </c>
       <c r="F41">
         <v>253504</v>
@@ -10923,7 +11005,7 @@
         <v>1.104583292509248</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>278</v>
       </c>
@@ -10931,13 +11013,13 @@
         <v>284</v>
       </c>
       <c r="C42">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D42" t="s">
         <v>243</v>
       </c>
       <c r="E42">
-        <v>1.084096</v>
+        <v>1.0840959999999999</v>
       </c>
       <c r="F42">
         <v>228032</v>
@@ -10949,10 +11031,10 @@
         <v>1517</v>
       </c>
       <c r="I42">
-        <v>0.9937694042108731</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.99376940421087312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>280</v>
       </c>
@@ -10960,13 +11042,13 @@
         <v>285</v>
       </c>
       <c r="C43">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
       </c>
       <c r="E43">
-        <v>1.02656</v>
+        <v>1.0265599999999999</v>
       </c>
       <c r="F43">
         <v>170496</v>
@@ -10978,10 +11060,10 @@
         <v>1614</v>
       </c>
       <c r="I43">
-        <v>1.02525983031565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>1.0252598303156499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>281</v>
       </c>
@@ -10989,7 +11071,7 @@
         <v>286</v>
       </c>
       <c r="C44">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D44" t="s">
         <v>243</v>
@@ -11010,7 +11092,7 @@
         <v>1.06561456664286</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>283</v>
       </c>
@@ -11018,13 +11100,13 @@
         <v>287</v>
       </c>
       <c r="C45">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D45" t="s">
         <v>243</v>
       </c>
       <c r="E45">
-        <v>1.06848</v>
+        <v>1.0684800000000001</v>
       </c>
       <c r="F45">
         <v>212416</v>
@@ -11039,7 +11121,7 @@
         <v>1.062525609470538</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>284</v>
       </c>
@@ -11047,7 +11129,7 @@
         <v>288</v>
       </c>
       <c r="C46">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D46" t="s">
         <v>243</v>
@@ -11065,10 +11147,10 @@
         <v>1675</v>
       </c>
       <c r="I46">
-        <v>1.092819477721099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>1.0928194777210991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>285</v>
       </c>
@@ -11076,13 +11158,13 @@
         <v>289</v>
       </c>
       <c r="C47">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D47" t="s">
         <v>243</v>
       </c>
       <c r="E47">
-        <v>1.0976</v>
+        <v>1.0975999999999999</v>
       </c>
       <c r="F47">
         <v>241536</v>
@@ -11094,10 +11176,10 @@
         <v>1672</v>
       </c>
       <c r="I47">
-        <v>1.085135661863255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>1.0851356618632551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>286</v>
       </c>
@@ -11105,13 +11187,13 @@
         <v>290</v>
       </c>
       <c r="C48">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D48" t="s">
         <v>243</v>
       </c>
       <c r="E48">
-        <v>1.11264</v>
+        <v>1.1126400000000001</v>
       </c>
       <c r="F48">
         <v>256576</v>
@@ -11126,7 +11208,7 @@
         <v>1.009970647390547</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>294</v>
       </c>
@@ -11134,7 +11216,7 @@
         <v>291</v>
       </c>
       <c r="C49">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D49" t="s">
         <v>243</v>
@@ -11152,10 +11234,10 @@
         <v>1711</v>
       </c>
       <c r="I49">
-        <v>1.122701374488129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>1.1227013744881289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>295</v>
       </c>
@@ -11163,13 +11245,13 @@
         <v>292</v>
       </c>
       <c r="C50">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D50" t="s">
         <v>243</v>
       </c>
       <c r="E50">
-        <v>1.067328</v>
+        <v>1.0673280000000001</v>
       </c>
       <c r="F50">
         <v>211264</v>
@@ -11184,7 +11266,7 @@
         <v>1.106393563710095</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>296</v>
       </c>
@@ -11192,7 +11274,7 @@
         <v>293</v>
       </c>
       <c r="C51">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D51" t="s">
         <v>243</v>
@@ -11210,10 +11292,10 @@
         <v>1666</v>
       </c>
       <c r="I51">
-        <v>1.073514520744577</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>1.0735145207445771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>299</v>
       </c>
@@ -11221,13 +11303,13 @@
         <v>294</v>
       </c>
       <c r="C52">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D52" t="s">
         <v>243</v>
       </c>
       <c r="E52">
-        <v>1.03808</v>
+        <v>1.0380799999999999</v>
       </c>
       <c r="F52">
         <v>182016</v>
@@ -11239,10 +11321,10 @@
         <v>1576</v>
       </c>
       <c r="I52">
-        <v>1.059714737680043</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>1.0597147376800431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>301</v>
       </c>
@@ -11250,7 +11332,7 @@
         <v>295</v>
       </c>
       <c r="C53">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D53" t="s">
         <v>243</v>
@@ -11271,7 +11353,7 @@
         <v>1.085486876133759</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>307</v>
       </c>
@@ -11279,13 +11361,13 @@
         <v>296</v>
       </c>
       <c r="C54">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D54" t="s">
         <v>243</v>
       </c>
       <c r="E54">
-        <v>1.052288</v>
+        <v>1.0522879999999999</v>
       </c>
       <c r="F54">
         <v>196224</v>
@@ -11297,10 +11379,10 @@
         <v>1654</v>
       </c>
       <c r="I54">
-        <v>1.064035224496065</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>1.0640352244960649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>311</v>
       </c>
@@ -11308,7 +11390,7 @@
         <v>297</v>
       </c>
       <c r="C55">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D55" t="s">
         <v>243</v>
@@ -11326,10 +11408,10 @@
         <v>1663</v>
       </c>
       <c r="I55">
-        <v>1.047247499347505</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>1.0472474993475049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>172</v>
       </c>
@@ -11337,13 +11419,13 @@
         <v>298</v>
       </c>
       <c r="C56">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D56" t="s">
         <v>243</v>
       </c>
       <c r="E56">
-        <v>0.691072</v>
+        <v>0.69107200000000002</v>
       </c>
       <c r="F56">
         <v>-164992</v>
@@ -11355,10 +11437,10 @@
         <v>1400</v>
       </c>
       <c r="I56">
-        <v>0.96543136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.96543135999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>187</v>
       </c>
@@ -11366,13 +11448,13 @@
         <v>299</v>
       </c>
       <c r="C57">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D57" t="s">
         <v>243</v>
       </c>
       <c r="E57">
-        <v>0.7239679999999999</v>
+        <v>0.72396799999999994</v>
       </c>
       <c r="F57">
         <v>-132096</v>
@@ -11384,10 +11466,10 @@
         <v>1629</v>
       </c>
       <c r="I57">
-        <v>1.02383448429687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>1.0238344842968701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -11395,13 +11477,13 @@
         <v>300</v>
       </c>
       <c r="C58">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D58" t="s">
         <v>243</v>
       </c>
       <c r="E58">
-        <v>0.7963519999999999</v>
+        <v>0.79635199999999995</v>
       </c>
       <c r="F58">
         <v>-59712</v>
@@ -11413,10 +11495,10 @@
         <v>1603</v>
       </c>
       <c r="I58">
-        <v>1.046841551074221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>1.0468415510742211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>251</v>
       </c>
@@ -11424,13 +11506,13 @@
         <v>301</v>
       </c>
       <c r="C59">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D59" t="s">
         <v>243</v>
       </c>
       <c r="E59">
-        <v>0.659648</v>
+        <v>0.65964800000000001</v>
       </c>
       <c r="F59">
         <v>-196416</v>
@@ -11442,10 +11524,10 @@
         <v>1649</v>
       </c>
       <c r="I59">
-        <v>1.058321295674345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>1.0583212956743451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>252</v>
       </c>
@@ -11453,13 +11535,13 @@
         <v>302</v>
       </c>
       <c r="C60">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D60" t="s">
         <v>243</v>
       </c>
       <c r="E60">
-        <v>0.9265279999999999</v>
+        <v>0.92652799999999991</v>
       </c>
       <c r="F60">
         <v>70464</v>
@@ -11474,7 +11556,7 @@
         <v>1.043252061679947</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>265</v>
       </c>
@@ -11482,13 +11564,13 @@
         <v>303</v>
       </c>
       <c r="C61">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D61" t="s">
         <v>243</v>
       </c>
       <c r="E61">
-        <v>0.821504</v>
+        <v>0.82150400000000001</v>
       </c>
       <c r="F61">
         <v>-34560</v>
@@ -11500,10 +11582,10 @@
         <v>1603</v>
       </c>
       <c r="I61">
-        <v>1.051735169069368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>1.0517351690693679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>266</v>
       </c>
@@ -11511,13 +11593,13 @@
         <v>304</v>
       </c>
       <c r="C62">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D62" t="s">
         <v>243</v>
       </c>
       <c r="E62">
-        <v>0.8040959999999999</v>
+        <v>0.80409599999999992</v>
       </c>
       <c r="F62">
         <v>-51968</v>
@@ -11529,10 +11611,10 @@
         <v>1646</v>
       </c>
       <c r="I62">
-        <v>1.077676314295755</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>1.0776763142957551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>277</v>
       </c>
@@ -11540,13 +11622,13 @@
         <v>305</v>
       </c>
       <c r="C63">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D63" t="s">
         <v>243</v>
       </c>
       <c r="E63">
-        <v>0.684288</v>
+        <v>0.68428800000000001</v>
       </c>
       <c r="F63">
         <v>-171776</v>
@@ -11558,10 +11640,10 @@
         <v>1605</v>
       </c>
       <c r="I63">
-        <v>1.034437437530837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>1.0344374375308369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>282</v>
       </c>
@@ -11569,13 +11651,13 @@
         <v>306</v>
       </c>
       <c r="C64">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D64" t="s">
         <v>243</v>
       </c>
       <c r="E64">
-        <v>0.8554879999999999</v>
+        <v>0.85548799999999992</v>
       </c>
       <c r="F64">
         <v>-576</v>
@@ -11590,7 +11672,7 @@
         <v>1.053856707262137</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>287</v>
       </c>
@@ -11598,13 +11680,13 @@
         <v>307</v>
       </c>
       <c r="C65">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D65" t="s">
         <v>243</v>
       </c>
       <c r="E65">
-        <v>0.9331199999999999</v>
+        <v>0.93311999999999995</v>
       </c>
       <c r="F65">
         <v>77056</v>
@@ -11619,7 +11701,7 @@
         <v>1.076115243015197</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>288</v>
       </c>
@@ -11627,13 +11709,13 @@
         <v>308</v>
       </c>
       <c r="C66">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D66" t="s">
         <v>243</v>
       </c>
       <c r="E66">
-        <v>0.849536</v>
+        <v>0.84953599999999996</v>
       </c>
       <c r="F66">
         <v>-6528</v>
@@ -11648,7 +11730,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>290</v>
       </c>
@@ -11656,13 +11738,13 @@
         <v>309</v>
       </c>
       <c r="C67">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D67" t="s">
         <v>243</v>
       </c>
       <c r="E67">
-        <v>0.90848</v>
+        <v>0.90847999999999995</v>
       </c>
       <c r="F67">
         <v>52416</v>
@@ -11677,7 +11759,7 @@
         <v>1.031563814158442</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>291</v>
       </c>
@@ -11685,13 +11767,13 @@
         <v>310</v>
       </c>
       <c r="C68">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D68" t="s">
         <v>243</v>
       </c>
       <c r="E68">
-        <v>0.800256</v>
+        <v>0.80025599999999997</v>
       </c>
       <c r="F68">
         <v>-55808</v>
@@ -11703,10 +11785,10 @@
         <v>1400</v>
       </c>
       <c r="I68">
-        <v>0.9302343991557563</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.93023439915575634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>292</v>
       </c>
@@ -11714,13 +11796,13 @@
         <v>311</v>
       </c>
       <c r="C69">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D69" t="s">
         <v>243</v>
       </c>
       <c r="E69">
-        <v>0.625088</v>
+        <v>0.62508799999999998</v>
       </c>
       <c r="F69">
         <v>-230976</v>
@@ -11732,10 +11814,10 @@
         <v>1495</v>
       </c>
       <c r="I69">
-        <v>0.9799314748604753</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.97993147486047527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>297</v>
       </c>
@@ -11743,13 +11825,13 @@
         <v>312</v>
       </c>
       <c r="C70">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D70" t="s">
         <v>243</v>
       </c>
       <c r="E70">
-        <v>0.7631359999999999</v>
+        <v>0.76313599999999993</v>
       </c>
       <c r="F70">
         <v>-92928</v>
@@ -11761,10 +11843,10 @@
         <v>1661</v>
       </c>
       <c r="I70">
-        <v>1.05877152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>1.0587715200000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>304</v>
       </c>
@@ -11772,13 +11854,13 @@
         <v>313</v>
       </c>
       <c r="C71">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D71" t="s">
         <v>243</v>
       </c>
       <c r="E71">
-        <v>0.70144</v>
+        <v>0.70143999999999995</v>
       </c>
       <c r="F71">
         <v>-154624</v>
@@ -11790,10 +11872,10 @@
         <v>1509</v>
       </c>
       <c r="I71">
-        <v>0.9709884458980494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.97098844589804945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>306</v>
       </c>
@@ -11801,13 +11883,13 @@
         <v>314</v>
       </c>
       <c r="C72">
-        <v>0.8560639999999999</v>
+        <v>0.85606399999999994</v>
       </c>
       <c r="D72" t="s">
         <v>243</v>
       </c>
       <c r="E72">
-        <v>0.940928</v>
+        <v>0.94092799999999999</v>
       </c>
       <c r="F72">
         <v>84864</v>
@@ -11823,6 +11905,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>